--- a/爬取美团酒店评论/全国酒店信息/台湾省酒店的基本信息.xlsx
+++ b/爬取美团酒店评论/全国酒店信息/台湾省酒店的基本信息.xlsx
@@ -5,10 +5,10 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\96075\Desktop\新建文件夹\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\96075\Desktop\全国酒店信息\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0B6DA3F2-2572-483F-B93C-D7B3BFC5A8AF}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{371EFF99-3B1B-4BB5-A252-C1780B84FB3C}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="11020" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -16,7 +16,7 @@
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
   <definedNames>
-    <definedName name="台湾省酒店的基本信息" localSheetId="0">Sheet1!$A$2:$M$276</definedName>
+    <definedName name="台湾省酒店的基本信息" localSheetId="0">Sheet1!$A$2:$H$276</definedName>
   </definedNames>
   <calcPr calcId="162913"/>
   <extLst>
@@ -47,7 +47,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2263" uniqueCount="696">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2208" uniqueCount="647">
   <si>
     <t>{"酒店名字": "台北凯撒大饭店"</t>
   </si>
@@ -649,9 +649,6 @@
     <t xml:space="preserve"> "酒店地址": "许昌街19号</t>
   </si>
   <si>
-    <t xml:space="preserve"> 台北车站"}</t>
-  </si>
-  <si>
     <t>{"酒店名字": "台北葳皇时尚饭店"</t>
   </si>
   <si>
@@ -991,12 +988,6 @@
     <t xml:space="preserve"> "酒店地址": "No.53</t>
   </si>
   <si>
-    <t xml:space="preserve"> Sec. 2</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> Kaifeng St"}</t>
-  </si>
-  <si>
     <t>{"酒店名字": "台北天成文旅华山町饭店"</t>
   </si>
   <si>
@@ -1321,12 +1312,6 @@
     <t xml:space="preserve"> "酒店地址": "8F.</t>
   </si>
   <si>
-    <t>No.28</t>
-  </si>
-  <si>
-    <t>GuancianRd."}</t>
-  </si>
-  <si>
     <t>{"酒店名字": "东驿商旅西宁馆"</t>
   </si>
   <si>
@@ -1465,18 +1450,6 @@
     <t xml:space="preserve"> "酒店地址": "No.12</t>
   </si>
   <si>
-    <t xml:space="preserve">  Lane 80</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> Sec. 4</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> Chengde Rd.</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> Shilin Dist."}</t>
-  </si>
-  <si>
     <t>{"酒店名字": "设计青年旅店"</t>
   </si>
   <si>
@@ -1597,12 +1570,6 @@
     <t xml:space="preserve"> "酒店地址": "2F</t>
   </si>
   <si>
-    <t>No.286</t>
-  </si>
-  <si>
-    <t>LinsenN.RoadZhongshanDist"}</t>
-  </si>
-  <si>
     <t>{"酒店名字": "台北西门大饭店-A馆"</t>
   </si>
   <si>
@@ -1639,21 +1606,6 @@
     <t xml:space="preserve"> "酒店地址": "台北 松山区 南京东路四段156号 /No.156</t>
   </si>
   <si>
-    <t xml:space="preserve"> Section 4</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> Nanjing E. Road</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> 松山区</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> 台北市</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> 台湾"}</t>
-  </si>
-  <si>
     <t>{"酒店名字": "台北大直薇阁精品旅馆"</t>
   </si>
   <si>
@@ -1681,12 +1633,6 @@
     <t xml:space="preserve"> "酒店地址": "No. 226</t>
   </si>
   <si>
-    <t xml:space="preserve"> Lane 415</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> Guangfu South Road"}</t>
-  </si>
-  <si>
     <t>{"酒店名字": "台北号子青旅"</t>
   </si>
   <si>
@@ -1789,12 +1735,6 @@
     <t xml:space="preserve"> "酒店地址": "No. 55</t>
   </si>
   <si>
-    <t xml:space="preserve"> Section 1</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> Renai Road"}</t>
-  </si>
-  <si>
     <t>{"酒店名字": "台北101会馆"</t>
   </si>
   <si>
@@ -1852,12 +1792,6 @@
     <t xml:space="preserve"> "酒店地址": "2F.</t>
   </si>
   <si>
-    <t xml:space="preserve"> No.95-3</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> Guangzhou St. （NON 24 HRS）"}</t>
-  </si>
-  <si>
     <t>{"酒店名字": "疯阁公寓一馆"</t>
   </si>
   <si>
@@ -1876,12 +1810,6 @@
     <t xml:space="preserve"> "酒店地址": "9F</t>
   </si>
   <si>
-    <t>26GuanqianRd.</t>
-  </si>
-  <si>
-    <t>ZhongzhengDist"}</t>
-  </si>
-  <si>
     <t>{"酒店名字": "来台北1号店(comeinntaipeii)"</t>
   </si>
   <si>
@@ -1894,15 +1822,6 @@
     <t xml:space="preserve"> "酒店地址": "No.21</t>
   </si>
   <si>
-    <t xml:space="preserve"> Ln. 49</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> Zhongxiao E. Rd.</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> Da'an Dist."}</t>
-  </si>
-  <si>
     <t>{"酒店名字": "Hotel Zoo"</t>
   </si>
   <si>
@@ -1942,24 +1861,12 @@
     <t xml:space="preserve"> "酒店地址": "No.3</t>
   </si>
   <si>
-    <t>Lane316</t>
-  </si>
-  <si>
-    <t>Sector3</t>
-  </si>
-  <si>
-    <t>RooseveltRdZhongzhengDistrict"}</t>
-  </si>
-  <si>
     <t>{"酒店名字": "瀚寓酒店"</t>
   </si>
   <si>
     <t xml:space="preserve"> "酒店地址": "基隆路一段 206 号</t>
   </si>
   <si>
-    <t xml:space="preserve"> 信义区"}</t>
-  </si>
-  <si>
     <t>{"酒店名字": "真心青年旅馆"</t>
   </si>
   <si>
@@ -1972,27 +1879,12 @@
     <t xml:space="preserve"> "酒店地址": "No. 201</t>
   </si>
   <si>
-    <t xml:space="preserve"> Sec. 1</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> Civic Blvd."}</t>
-  </si>
-  <si>
     <t>{"酒店名字": "杰克叔叔SOGO复兴609四人房"</t>
   </si>
   <si>
     <t xml:space="preserve"> "酒店地址": "No.17</t>
   </si>
   <si>
-    <t xml:space="preserve"> Ln.107</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> Sec.1</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> Fuxing S. Rd"}</t>
-  </si>
-  <si>
     <t>{"酒店名字": "杰克叔叔SOGO复兴604双人房"</t>
   </si>
   <si>
@@ -2008,24 +1900,12 @@
     <t xml:space="preserve"> "酒店地址": "No. 17-3</t>
   </si>
   <si>
-    <t xml:space="preserve"> Lane 77</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> Section 2</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> Jhongshan North Road"}</t>
-  </si>
-  <si>
     <t>{"酒店名字": "囍堂民宿"</t>
   </si>
   <si>
     <t xml:space="preserve"> "酒店地址": "No.602</t>
   </si>
   <si>
-    <t xml:space="preserve"> Bade Rd. Songshan Dist. Taipei"}</t>
-  </si>
-  <si>
     <t>{"酒店名字": "台北中山会馆"</t>
   </si>
   <si>
@@ -2044,9 +1924,6 @@
     <t xml:space="preserve"> "酒店地址": "No.168</t>
   </si>
   <si>
-    <t xml:space="preserve"> Civic Blvd. Daan Dist."}</t>
-  </si>
-  <si>
     <t>{"酒店名字": "台北群来商旅"</t>
   </si>
   <si>
@@ -2059,33 +1936,12 @@
     <t xml:space="preserve"> "酒店地址": "林森北路359号</t>
   </si>
   <si>
-    <t xml:space="preserve"> 中山区</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> 台北</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> 中国台湾"}</t>
-  </si>
-  <si>
     <t>{"酒店名字": "公馆栈精致双人套房/可加床-近公馆捷运站台湾大学B"</t>
   </si>
   <si>
     <t xml:space="preserve"> "酒店地址": "4F</t>
   </si>
   <si>
-    <t xml:space="preserve"> No. 132</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> Sec.4</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> Roosevelt Rd. Zhongzheng Dist.</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> Taipei City"}</t>
-  </si>
-  <si>
     <t>{"酒店名字": "华山艺术月租公寓"</t>
   </si>
   <si>
@@ -2096,9 +1952,6 @@
   </si>
   <si>
     <t xml:space="preserve"> "酒店地址": "No.54</t>
-  </si>
-  <si>
-    <t>Ln.260GuangfuSouthRoadDaanDist."}</t>
   </si>
   <si>
     <t>{"酒店名字": "台北西门町的小角落(small corner in ximending)"</t>
@@ -2479,10 +2332,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:M276"/>
+  <dimension ref="A1:H276"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection sqref="A1:XFD1"/>
+    <sheetView tabSelected="1" topLeftCell="H1" workbookViewId="0">
+      <selection activeCell="I1" sqref="I1:I1048576"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14" x14ac:dyDescent="0.3"/>
@@ -2494,37 +2347,32 @@
     <col min="6" max="6" width="18.6640625" bestFit="1" customWidth="1"/>
     <col min="7" max="7" width="19.58203125" bestFit="1" customWidth="1"/>
     <col min="8" max="8" width="74.25" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="32.08203125" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="30.33203125" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="29" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="11.33203125" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="6.5" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
-        <v>688</v>
+        <v>639</v>
       </c>
       <c r="B1" t="s">
-        <v>689</v>
+        <v>640</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>690</v>
+        <v>641</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>691</v>
+        <v>642</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>692</v>
+        <v>643</v>
       </c>
       <c r="F1" s="1" t="s">
-        <v>693</v>
+        <v>644</v>
       </c>
       <c r="G1" s="1" t="s">
-        <v>694</v>
+        <v>645</v>
       </c>
       <c r="H1" s="1" t="s">
-        <v>695</v>
+        <v>646</v>
       </c>
     </row>
     <row r="2" spans="1:8" x14ac:dyDescent="0.3">
@@ -4165,7 +4013,7 @@
         <v>188</v>
       </c>
     </row>
-    <row r="65" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="65" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A65" t="s">
         <v>189</v>
       </c>
@@ -4191,7 +4039,7 @@
         <v>190</v>
       </c>
     </row>
-    <row r="66" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="66" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A66" t="s">
         <v>191</v>
       </c>
@@ -4217,7 +4065,7 @@
         <v>192</v>
       </c>
     </row>
-    <row r="67" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="67" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A67" t="s">
         <v>193</v>
       </c>
@@ -4243,7 +4091,7 @@
         <v>194</v>
       </c>
     </row>
-    <row r="68" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="68" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A68" t="s">
         <v>195</v>
       </c>
@@ -4269,7 +4117,7 @@
         <v>196</v>
       </c>
     </row>
-    <row r="69" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="69" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A69" t="s">
         <v>197</v>
       </c>
@@ -4294,13 +4142,10 @@
       <c r="H69" t="s">
         <v>199</v>
       </c>
-      <c r="I69" t="s">
+    </row>
+    <row r="70" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A70" t="s">
         <v>200</v>
-      </c>
-    </row>
-    <row r="70" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A70" t="s">
-        <v>201</v>
       </c>
       <c r="B70" t="s">
         <v>58</v>
@@ -4321,12 +4166,12 @@
         <v>6</v>
       </c>
       <c r="H70" t="s">
+        <v>201</v>
+      </c>
+    </row>
+    <row r="71" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A71" t="s">
         <v>202</v>
-      </c>
-    </row>
-    <row r="71" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A71" t="s">
-        <v>203</v>
       </c>
       <c r="B71" t="s">
         <v>58</v>
@@ -4347,12 +4192,12 @@
         <v>6</v>
       </c>
       <c r="H71" t="s">
+        <v>203</v>
+      </c>
+    </row>
+    <row r="72" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A72" t="s">
         <v>204</v>
-      </c>
-    </row>
-    <row r="72" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A72" t="s">
-        <v>205</v>
       </c>
       <c r="B72" t="s">
         <v>1</v>
@@ -4373,12 +4218,12 @@
         <v>6</v>
       </c>
       <c r="H72" t="s">
+        <v>205</v>
+      </c>
+    </row>
+    <row r="73" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A73" t="s">
         <v>206</v>
-      </c>
-    </row>
-    <row r="73" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A73" t="s">
-        <v>207</v>
       </c>
       <c r="B73" t="s">
         <v>1</v>
@@ -4399,12 +4244,12 @@
         <v>6</v>
       </c>
       <c r="H73" t="s">
+        <v>207</v>
+      </c>
+    </row>
+    <row r="74" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A74" t="s">
         <v>208</v>
-      </c>
-    </row>
-    <row r="74" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A74" t="s">
-        <v>209</v>
       </c>
       <c r="B74" t="s">
         <v>58</v>
@@ -4425,18 +4270,18 @@
         <v>6</v>
       </c>
       <c r="H74" t="s">
+        <v>209</v>
+      </c>
+    </row>
+    <row r="75" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A75" t="s">
         <v>210</v>
-      </c>
-    </row>
-    <row r="75" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A75" t="s">
-        <v>211</v>
       </c>
       <c r="B75" t="s">
         <v>36</v>
       </c>
       <c r="C75" t="s">
-        <v>212</v>
+        <v>211</v>
       </c>
       <c r="D75" t="s">
         <v>10</v>
@@ -4451,12 +4296,12 @@
         <v>6</v>
       </c>
       <c r="H75" t="s">
+        <v>212</v>
+      </c>
+    </row>
+    <row r="76" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A76" t="s">
         <v>213</v>
-      </c>
-    </row>
-    <row r="76" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A76" t="s">
-        <v>214</v>
       </c>
       <c r="B76" t="s">
         <v>36</v>
@@ -4477,12 +4322,12 @@
         <v>6</v>
       </c>
       <c r="H76" t="s">
+        <v>214</v>
+      </c>
+    </row>
+    <row r="77" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A77" t="s">
         <v>215</v>
-      </c>
-    </row>
-    <row r="77" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A77" t="s">
-        <v>216</v>
       </c>
       <c r="B77" t="s">
         <v>54</v>
@@ -4503,12 +4348,12 @@
         <v>6</v>
       </c>
       <c r="H77" t="s">
+        <v>216</v>
+      </c>
+    </row>
+    <row r="78" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A78" t="s">
         <v>217</v>
-      </c>
-    </row>
-    <row r="78" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A78" t="s">
-        <v>218</v>
       </c>
       <c r="B78" t="s">
         <v>58</v>
@@ -4529,12 +4374,12 @@
         <v>6</v>
       </c>
       <c r="H78" t="s">
+        <v>218</v>
+      </c>
+    </row>
+    <row r="79" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A79" t="s">
         <v>219</v>
-      </c>
-    </row>
-    <row r="79" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A79" t="s">
-        <v>220</v>
       </c>
       <c r="B79" t="s">
         <v>30</v>
@@ -4555,12 +4400,12 @@
         <v>6</v>
       </c>
       <c r="H79" t="s">
+        <v>220</v>
+      </c>
+    </row>
+    <row r="80" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A80" t="s">
         <v>221</v>
-      </c>
-    </row>
-    <row r="80" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A80" t="s">
-        <v>222</v>
       </c>
       <c r="B80" t="s">
         <v>58</v>
@@ -4581,12 +4426,12 @@
         <v>6</v>
       </c>
       <c r="H80" t="s">
-        <v>223</v>
+        <v>222</v>
       </c>
     </row>
     <row r="81" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A81" t="s">
-        <v>224</v>
+        <v>223</v>
       </c>
       <c r="B81" t="s">
         <v>58</v>
@@ -4607,12 +4452,12 @@
         <v>6</v>
       </c>
       <c r="H81" t="s">
-        <v>225</v>
+        <v>224</v>
       </c>
     </row>
     <row r="82" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A82" t="s">
-        <v>226</v>
+        <v>225</v>
       </c>
       <c r="B82" t="s">
         <v>30</v>
@@ -4633,12 +4478,12 @@
         <v>6</v>
       </c>
       <c r="H82" t="s">
-        <v>227</v>
+        <v>226</v>
       </c>
     </row>
     <row r="83" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A83" t="s">
-        <v>228</v>
+        <v>227</v>
       </c>
       <c r="B83" t="s">
         <v>58</v>
@@ -4659,12 +4504,12 @@
         <v>6</v>
       </c>
       <c r="H83" t="s">
-        <v>229</v>
+        <v>228</v>
       </c>
     </row>
     <row r="84" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A84" t="s">
-        <v>230</v>
+        <v>229</v>
       </c>
       <c r="B84" t="s">
         <v>36</v>
@@ -4685,12 +4530,12 @@
         <v>6</v>
       </c>
       <c r="H84" t="s">
-        <v>231</v>
+        <v>230</v>
       </c>
     </row>
     <row r="85" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A85" t="s">
-        <v>232</v>
+        <v>231</v>
       </c>
       <c r="B85" t="s">
         <v>1</v>
@@ -4711,12 +4556,12 @@
         <v>6</v>
       </c>
       <c r="H85" t="s">
-        <v>233</v>
+        <v>232</v>
       </c>
     </row>
     <row r="86" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A86" t="s">
-        <v>234</v>
+        <v>233</v>
       </c>
       <c r="B86" t="s">
         <v>36</v>
@@ -4737,12 +4582,12 @@
         <v>6</v>
       </c>
       <c r="H86" t="s">
-        <v>235</v>
+        <v>234</v>
       </c>
     </row>
     <row r="87" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A87" t="s">
-        <v>236</v>
+        <v>235</v>
       </c>
       <c r="B87" t="s">
         <v>1</v>
@@ -4751,24 +4596,24 @@
         <v>43</v>
       </c>
       <c r="D87" t="s">
+        <v>236</v>
+      </c>
+      <c r="E87" t="s">
+        <v>4</v>
+      </c>
+      <c r="F87" t="s">
+        <v>5</v>
+      </c>
+      <c r="G87" t="s">
+        <v>6</v>
+      </c>
+      <c r="H87" t="s">
         <v>237</v>
-      </c>
-      <c r="E87" t="s">
-        <v>4</v>
-      </c>
-      <c r="F87" t="s">
-        <v>5</v>
-      </c>
-      <c r="G87" t="s">
-        <v>6</v>
-      </c>
-      <c r="H87" t="s">
-        <v>238</v>
       </c>
     </row>
     <row r="88" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A88" t="s">
-        <v>239</v>
+        <v>238</v>
       </c>
       <c r="B88" t="s">
         <v>54</v>
@@ -4789,12 +4634,12 @@
         <v>6</v>
       </c>
       <c r="H88" t="s">
-        <v>240</v>
+        <v>239</v>
       </c>
     </row>
     <row r="89" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A89" t="s">
-        <v>241</v>
+        <v>240</v>
       </c>
       <c r="B89" t="s">
         <v>30</v>
@@ -4815,12 +4660,12 @@
         <v>6</v>
       </c>
       <c r="H89" t="s">
-        <v>242</v>
+        <v>241</v>
       </c>
     </row>
     <row r="90" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A90" t="s">
-        <v>243</v>
+        <v>242</v>
       </c>
       <c r="B90" t="s">
         <v>36</v>
@@ -4841,44 +4686,44 @@
         <v>6</v>
       </c>
       <c r="H90" t="s">
-        <v>244</v>
+        <v>243</v>
       </c>
     </row>
     <row r="91" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A91" t="s">
-        <v>245</v>
+        <v>244</v>
       </c>
       <c r="B91" t="s">
         <v>1</v>
       </c>
       <c r="C91" t="s">
+        <v>245</v>
+      </c>
+      <c r="D91" t="s">
         <v>246</v>
       </c>
-      <c r="D91" t="s">
+      <c r="E91" t="s">
         <v>247</v>
       </c>
-      <c r="E91" t="s">
+      <c r="F91" t="s">
+        <v>5</v>
+      </c>
+      <c r="G91" t="s">
+        <v>6</v>
+      </c>
+      <c r="H91" t="s">
         <v>248</v>
-      </c>
-      <c r="F91" t="s">
-        <v>5</v>
-      </c>
-      <c r="G91" t="s">
-        <v>6</v>
-      </c>
-      <c r="H91" t="s">
-        <v>249</v>
       </c>
     </row>
     <row r="92" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A92" t="s">
-        <v>250</v>
+        <v>249</v>
       </c>
       <c r="B92" t="s">
         <v>58</v>
       </c>
       <c r="C92" t="s">
-        <v>251</v>
+        <v>250</v>
       </c>
       <c r="D92" t="s">
         <v>88</v>
@@ -4893,12 +4738,12 @@
         <v>6</v>
       </c>
       <c r="H92" t="s">
-        <v>252</v>
+        <v>251</v>
       </c>
     </row>
     <row r="93" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A93" t="s">
-        <v>253</v>
+        <v>252</v>
       </c>
       <c r="B93" t="s">
         <v>58</v>
@@ -4919,12 +4764,12 @@
         <v>6</v>
       </c>
       <c r="H93" t="s">
-        <v>254</v>
+        <v>253</v>
       </c>
     </row>
     <row r="94" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A94" t="s">
-        <v>255</v>
+        <v>254</v>
       </c>
       <c r="B94" t="s">
         <v>58</v>
@@ -4945,12 +4790,12 @@
         <v>6</v>
       </c>
       <c r="H94" t="s">
-        <v>256</v>
+        <v>255</v>
       </c>
     </row>
     <row r="95" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A95" t="s">
-        <v>257</v>
+        <v>256</v>
       </c>
       <c r="B95" t="s">
         <v>54</v>
@@ -4971,12 +4816,12 @@
         <v>6</v>
       </c>
       <c r="H95" t="s">
-        <v>258</v>
+        <v>257</v>
       </c>
     </row>
     <row r="96" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A96" t="s">
-        <v>259</v>
+        <v>258</v>
       </c>
       <c r="B96" t="s">
         <v>36</v>
@@ -4997,12 +4842,12 @@
         <v>6</v>
       </c>
       <c r="H96" t="s">
-        <v>260</v>
+        <v>259</v>
       </c>
     </row>
     <row r="97" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A97" t="s">
-        <v>261</v>
+        <v>260</v>
       </c>
       <c r="B97" t="s">
         <v>54</v>
@@ -5023,12 +4868,12 @@
         <v>6</v>
       </c>
       <c r="H97" t="s">
-        <v>262</v>
+        <v>261</v>
       </c>
     </row>
     <row r="98" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A98" t="s">
-        <v>263</v>
+        <v>262</v>
       </c>
       <c r="B98" t="s">
         <v>36</v>
@@ -5049,12 +4894,12 @@
         <v>6</v>
       </c>
       <c r="H98" t="s">
-        <v>264</v>
+        <v>263</v>
       </c>
     </row>
     <row r="99" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A99" t="s">
-        <v>265</v>
+        <v>264</v>
       </c>
       <c r="B99" t="s">
         <v>30</v>
@@ -5075,12 +4920,12 @@
         <v>6</v>
       </c>
       <c r="H99" t="s">
-        <v>266</v>
+        <v>265</v>
       </c>
     </row>
     <row r="100" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A100" t="s">
-        <v>267</v>
+        <v>266</v>
       </c>
       <c r="B100" t="s">
         <v>58</v>
@@ -5101,12 +4946,12 @@
         <v>6</v>
       </c>
       <c r="H100" t="s">
-        <v>268</v>
+        <v>267</v>
       </c>
     </row>
     <row r="101" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A101" t="s">
-        <v>269</v>
+        <v>268</v>
       </c>
       <c r="B101" t="s">
         <v>58</v>
@@ -5127,12 +4972,12 @@
         <v>6</v>
       </c>
       <c r="H101" t="s">
-        <v>270</v>
+        <v>269</v>
       </c>
     </row>
     <row r="102" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A102" t="s">
-        <v>271</v>
+        <v>270</v>
       </c>
       <c r="B102" t="s">
         <v>30</v>
@@ -5153,12 +4998,12 @@
         <v>6</v>
       </c>
       <c r="H102" t="s">
-        <v>272</v>
+        <v>271</v>
       </c>
     </row>
     <row r="103" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A103" t="s">
-        <v>273</v>
+        <v>272</v>
       </c>
       <c r="B103" t="s">
         <v>54</v>
@@ -5179,12 +5024,12 @@
         <v>6</v>
       </c>
       <c r="H103" t="s">
-        <v>274</v>
+        <v>273</v>
       </c>
     </row>
     <row r="104" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A104" t="s">
-        <v>275</v>
+        <v>274</v>
       </c>
       <c r="B104" t="s">
         <v>30</v>
@@ -5205,12 +5050,12 @@
         <v>6</v>
       </c>
       <c r="H104" t="s">
-        <v>276</v>
+        <v>275</v>
       </c>
     </row>
     <row r="105" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A105" t="s">
-        <v>277</v>
+        <v>276</v>
       </c>
       <c r="B105" t="s">
         <v>36</v>
@@ -5231,12 +5076,12 @@
         <v>6</v>
       </c>
       <c r="H105" t="s">
-        <v>278</v>
+        <v>277</v>
       </c>
     </row>
     <row r="106" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A106" t="s">
-        <v>279</v>
+        <v>278</v>
       </c>
       <c r="B106" t="s">
         <v>30</v>
@@ -5257,12 +5102,12 @@
         <v>6</v>
       </c>
       <c r="H106" t="s">
-        <v>280</v>
+        <v>279</v>
       </c>
     </row>
     <row r="107" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A107" t="s">
-        <v>281</v>
+        <v>280</v>
       </c>
       <c r="B107" t="s">
         <v>58</v>
@@ -5283,12 +5128,12 @@
         <v>6</v>
       </c>
       <c r="H107" t="s">
-        <v>282</v>
+        <v>281</v>
       </c>
     </row>
     <row r="108" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A108" t="s">
-        <v>283</v>
+        <v>282</v>
       </c>
       <c r="B108" t="s">
         <v>36</v>
@@ -5309,12 +5154,12 @@
         <v>6</v>
       </c>
       <c r="H108" t="s">
-        <v>284</v>
+        <v>283</v>
       </c>
     </row>
     <row r="109" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A109" t="s">
-        <v>285</v>
+        <v>284</v>
       </c>
       <c r="B109" t="s">
         <v>58</v>
@@ -5335,12 +5180,12 @@
         <v>6</v>
       </c>
       <c r="H109" t="s">
-        <v>286</v>
+        <v>285</v>
       </c>
     </row>
     <row r="110" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A110" t="s">
-        <v>287</v>
+        <v>286</v>
       </c>
       <c r="B110" t="s">
         <v>58</v>
@@ -5361,12 +5206,12 @@
         <v>6</v>
       </c>
       <c r="H110" t="s">
-        <v>288</v>
+        <v>287</v>
       </c>
     </row>
     <row r="111" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A111" t="s">
-        <v>289</v>
+        <v>288</v>
       </c>
       <c r="B111" t="s">
         <v>36</v>
@@ -5387,12 +5232,12 @@
         <v>6</v>
       </c>
       <c r="H111" t="s">
-        <v>290</v>
+        <v>289</v>
       </c>
     </row>
     <row r="112" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A112" t="s">
-        <v>291</v>
+        <v>290</v>
       </c>
       <c r="B112" t="s">
         <v>36</v>
@@ -5413,12 +5258,12 @@
         <v>6</v>
       </c>
       <c r="H112" t="s">
+        <v>291</v>
+      </c>
+    </row>
+    <row r="113" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A113" t="s">
         <v>292</v>
-      </c>
-    </row>
-    <row r="113" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A113" t="s">
-        <v>293</v>
       </c>
       <c r="B113" t="s">
         <v>30</v>
@@ -5430,27 +5275,27 @@
         <v>14</v>
       </c>
       <c r="E113" t="s">
+        <v>293</v>
+      </c>
+      <c r="F113" t="s">
+        <v>5</v>
+      </c>
+      <c r="G113" t="s">
+        <v>6</v>
+      </c>
+      <c r="H113" t="s">
         <v>294</v>
       </c>
-      <c r="F113" t="s">
-        <v>5</v>
-      </c>
-      <c r="G113" t="s">
-        <v>6</v>
-      </c>
-      <c r="H113" t="s">
+    </row>
+    <row r="114" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A114" t="s">
         <v>295</v>
-      </c>
-    </row>
-    <row r="114" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A114" t="s">
-        <v>296</v>
       </c>
       <c r="B114" t="s">
         <v>58</v>
       </c>
       <c r="C114" t="s">
-        <v>297</v>
+        <v>296</v>
       </c>
       <c r="D114" t="s">
         <v>3</v>
@@ -5465,18 +5310,18 @@
         <v>6</v>
       </c>
       <c r="H114" t="s">
+        <v>297</v>
+      </c>
+    </row>
+    <row r="115" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A115" t="s">
         <v>298</v>
-      </c>
-    </row>
-    <row r="115" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A115" t="s">
-        <v>299</v>
       </c>
       <c r="B115" t="s">
         <v>36</v>
       </c>
       <c r="C115" t="s">
-        <v>300</v>
+        <v>299</v>
       </c>
       <c r="D115" t="s">
         <v>14</v>
@@ -5491,18 +5336,18 @@
         <v>6</v>
       </c>
       <c r="H115" t="s">
+        <v>300</v>
+      </c>
+    </row>
+    <row r="116" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A116" t="s">
         <v>301</v>
-      </c>
-    </row>
-    <row r="116" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A116" t="s">
-        <v>302</v>
       </c>
       <c r="B116" t="s">
         <v>54</v>
       </c>
       <c r="C116" t="s">
-        <v>303</v>
+        <v>302</v>
       </c>
       <c r="D116" t="s">
         <v>92</v>
@@ -5517,12 +5362,12 @@
         <v>6</v>
       </c>
       <c r="H116" t="s">
+        <v>303</v>
+      </c>
+    </row>
+    <row r="117" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A117" t="s">
         <v>304</v>
-      </c>
-    </row>
-    <row r="117" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A117" t="s">
-        <v>305</v>
       </c>
       <c r="B117" t="s">
         <v>30</v>
@@ -5531,7 +5376,7 @@
         <v>174</v>
       </c>
       <c r="D117" t="s">
-        <v>247</v>
+        <v>246</v>
       </c>
       <c r="E117" t="s">
         <v>157</v>
@@ -5543,18 +5388,18 @@
         <v>6</v>
       </c>
       <c r="H117" t="s">
+        <v>305</v>
+      </c>
+    </row>
+    <row r="118" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A118" t="s">
         <v>306</v>
-      </c>
-    </row>
-    <row r="118" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A118" t="s">
-        <v>307</v>
       </c>
       <c r="B118" t="s">
         <v>58</v>
       </c>
       <c r="C118" t="s">
-        <v>308</v>
+        <v>307</v>
       </c>
       <c r="D118" t="s">
         <v>18</v>
@@ -5569,12 +5414,12 @@
         <v>6</v>
       </c>
       <c r="H118" t="s">
+        <v>308</v>
+      </c>
+    </row>
+    <row r="119" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A119" t="s">
         <v>309</v>
-      </c>
-    </row>
-    <row r="119" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A119" t="s">
-        <v>310</v>
       </c>
       <c r="B119" t="s">
         <v>30</v>
@@ -5595,12 +5440,12 @@
         <v>6</v>
       </c>
       <c r="H119" t="s">
+        <v>310</v>
+      </c>
+    </row>
+    <row r="120" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A120" t="s">
         <v>311</v>
-      </c>
-    </row>
-    <row r="120" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A120" t="s">
-        <v>312</v>
       </c>
       <c r="B120" t="s">
         <v>58</v>
@@ -5621,24 +5466,18 @@
         <v>6</v>
       </c>
       <c r="H120" t="s">
+        <v>312</v>
+      </c>
+    </row>
+    <row r="121" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A121" t="s">
         <v>313</v>
-      </c>
-      <c r="I120" t="s">
-        <v>314</v>
-      </c>
-      <c r="J120" t="s">
-        <v>315</v>
-      </c>
-    </row>
-    <row r="121" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A121" t="s">
-        <v>316</v>
       </c>
       <c r="B121" t="s">
         <v>54</v>
       </c>
       <c r="C121" t="s">
-        <v>303</v>
+        <v>302</v>
       </c>
       <c r="D121" t="s">
         <v>10</v>
@@ -5653,12 +5492,12 @@
         <v>6</v>
       </c>
       <c r="H121" t="s">
-        <v>317</v>
-      </c>
-    </row>
-    <row r="122" spans="1:10" x14ac:dyDescent="0.3">
+        <v>314</v>
+      </c>
+    </row>
+    <row r="122" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A122" t="s">
-        <v>318</v>
+        <v>315</v>
       </c>
       <c r="B122" t="s">
         <v>36</v>
@@ -5679,12 +5518,12 @@
         <v>6</v>
       </c>
       <c r="H122" t="s">
-        <v>319</v>
-      </c>
-    </row>
-    <row r="123" spans="1:10" x14ac:dyDescent="0.3">
+        <v>316</v>
+      </c>
+    </row>
+    <row r="123" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A123" t="s">
-        <v>320</v>
+        <v>317</v>
       </c>
       <c r="B123" t="s">
         <v>58</v>
@@ -5705,12 +5544,12 @@
         <v>6</v>
       </c>
       <c r="H123" t="s">
-        <v>321</v>
-      </c>
-    </row>
-    <row r="124" spans="1:10" x14ac:dyDescent="0.3">
+        <v>318</v>
+      </c>
+    </row>
+    <row r="124" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A124" t="s">
-        <v>322</v>
+        <v>319</v>
       </c>
       <c r="B124" t="s">
         <v>36</v>
@@ -5731,12 +5570,12 @@
         <v>6</v>
       </c>
       <c r="H124" t="s">
-        <v>323</v>
-      </c>
-    </row>
-    <row r="125" spans="1:10" x14ac:dyDescent="0.3">
+        <v>320</v>
+      </c>
+    </row>
+    <row r="125" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A125" t="s">
-        <v>324</v>
+        <v>321</v>
       </c>
       <c r="B125" t="s">
         <v>30</v>
@@ -5757,12 +5596,12 @@
         <v>6</v>
       </c>
       <c r="H125" t="s">
-        <v>325</v>
-      </c>
-    </row>
-    <row r="126" spans="1:10" x14ac:dyDescent="0.3">
+        <v>322</v>
+      </c>
+    </row>
+    <row r="126" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A126" t="s">
-        <v>326</v>
+        <v>323</v>
       </c>
       <c r="B126" t="s">
         <v>54</v>
@@ -5783,12 +5622,12 @@
         <v>6</v>
       </c>
       <c r="H126" t="s">
-        <v>327</v>
-      </c>
-    </row>
-    <row r="127" spans="1:10" x14ac:dyDescent="0.3">
+        <v>324</v>
+      </c>
+    </row>
+    <row r="127" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A127" t="s">
-        <v>328</v>
+        <v>325</v>
       </c>
       <c r="B127" t="s">
         <v>30</v>
@@ -5809,12 +5648,12 @@
         <v>6</v>
       </c>
       <c r="H127" t="s">
-        <v>329</v>
-      </c>
-    </row>
-    <row r="128" spans="1:10" x14ac:dyDescent="0.3">
+        <v>326</v>
+      </c>
+    </row>
+    <row r="128" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A128" t="s">
-        <v>330</v>
+        <v>327</v>
       </c>
       <c r="B128" t="s">
         <v>58</v>
@@ -5835,12 +5674,12 @@
         <v>6</v>
       </c>
       <c r="H128" t="s">
-        <v>331</v>
+        <v>328</v>
       </c>
     </row>
     <row r="129" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A129" t="s">
-        <v>332</v>
+        <v>329</v>
       </c>
       <c r="B129" t="s">
         <v>30</v>
@@ -5861,12 +5700,12 @@
         <v>6</v>
       </c>
       <c r="H129" t="s">
-        <v>333</v>
+        <v>330</v>
       </c>
     </row>
     <row r="130" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A130" t="s">
-        <v>334</v>
+        <v>331</v>
       </c>
       <c r="B130" t="s">
         <v>36</v>
@@ -5887,12 +5726,12 @@
         <v>6</v>
       </c>
       <c r="H130" t="s">
-        <v>335</v>
+        <v>332</v>
       </c>
     </row>
     <row r="131" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A131" t="s">
-        <v>336</v>
+        <v>333</v>
       </c>
       <c r="B131" t="s">
         <v>58</v>
@@ -5913,12 +5752,12 @@
         <v>6</v>
       </c>
       <c r="H131" t="s">
-        <v>337</v>
+        <v>334</v>
       </c>
     </row>
     <row r="132" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A132" t="s">
-        <v>338</v>
+        <v>335</v>
       </c>
       <c r="B132" t="s">
         <v>58</v>
@@ -5930,7 +5769,7 @@
         <v>88</v>
       </c>
       <c r="E132" t="s">
-        <v>339</v>
+        <v>336</v>
       </c>
       <c r="F132" t="s">
         <v>5</v>
@@ -5939,12 +5778,12 @@
         <v>6</v>
       </c>
       <c r="H132" t="s">
-        <v>340</v>
+        <v>337</v>
       </c>
     </row>
     <row r="133" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A133" t="s">
-        <v>341</v>
+        <v>338</v>
       </c>
       <c r="B133" t="s">
         <v>36</v>
@@ -5965,12 +5804,12 @@
         <v>6</v>
       </c>
       <c r="H133" t="s">
-        <v>342</v>
+        <v>339</v>
       </c>
     </row>
     <row r="134" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A134" t="s">
-        <v>343</v>
+        <v>340</v>
       </c>
       <c r="B134" t="s">
         <v>36</v>
@@ -5991,12 +5830,12 @@
         <v>6</v>
       </c>
       <c r="H134" t="s">
-        <v>344</v>
+        <v>341</v>
       </c>
     </row>
     <row r="135" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A135" t="s">
-        <v>345</v>
+        <v>342</v>
       </c>
       <c r="B135" t="s">
         <v>58</v>
@@ -6017,12 +5856,12 @@
         <v>6</v>
       </c>
       <c r="H135" t="s">
-        <v>346</v>
+        <v>343</v>
       </c>
     </row>
     <row r="136" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A136" t="s">
-        <v>347</v>
+        <v>344</v>
       </c>
       <c r="B136" t="s">
         <v>30</v>
@@ -6043,12 +5882,12 @@
         <v>6</v>
       </c>
       <c r="H136" t="s">
-        <v>348</v>
+        <v>345</v>
       </c>
     </row>
     <row r="137" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A137" t="s">
-        <v>349</v>
+        <v>346</v>
       </c>
       <c r="B137" t="s">
         <v>54</v>
@@ -6069,12 +5908,12 @@
         <v>6</v>
       </c>
       <c r="H137" t="s">
-        <v>350</v>
+        <v>347</v>
       </c>
     </row>
     <row r="138" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A138" t="s">
-        <v>351</v>
+        <v>348</v>
       </c>
       <c r="B138" t="s">
         <v>36</v>
@@ -6095,12 +5934,12 @@
         <v>6</v>
       </c>
       <c r="H138" t="s">
-        <v>352</v>
+        <v>349</v>
       </c>
     </row>
     <row r="139" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A139" t="s">
-        <v>353</v>
+        <v>350</v>
       </c>
       <c r="B139" t="s">
         <v>58</v>
@@ -6121,12 +5960,12 @@
         <v>6</v>
       </c>
       <c r="H139" t="s">
-        <v>354</v>
+        <v>351</v>
       </c>
     </row>
     <row r="140" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A140" t="s">
-        <v>355</v>
+        <v>352</v>
       </c>
       <c r="B140" t="s">
         <v>36</v>
@@ -6147,12 +5986,12 @@
         <v>6</v>
       </c>
       <c r="H140" t="s">
-        <v>356</v>
+        <v>353</v>
       </c>
     </row>
     <row r="141" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A141" t="s">
-        <v>357</v>
+        <v>354</v>
       </c>
       <c r="B141" t="s">
         <v>58</v>
@@ -6173,12 +6012,12 @@
         <v>6</v>
       </c>
       <c r="H141" t="s">
-        <v>358</v>
+        <v>355</v>
       </c>
     </row>
     <row r="142" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A142" t="s">
-        <v>359</v>
+        <v>356</v>
       </c>
       <c r="B142" t="s">
         <v>36</v>
@@ -6199,12 +6038,12 @@
         <v>6</v>
       </c>
       <c r="H142" t="s">
-        <v>360</v>
+        <v>357</v>
       </c>
     </row>
     <row r="143" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A143" t="s">
-        <v>361</v>
+        <v>358</v>
       </c>
       <c r="B143" t="s">
         <v>58</v>
@@ -6225,12 +6064,12 @@
         <v>6</v>
       </c>
       <c r="H143" t="s">
-        <v>362</v>
+        <v>359</v>
       </c>
     </row>
     <row r="144" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A144" t="s">
-        <v>363</v>
+        <v>360</v>
       </c>
       <c r="B144" t="s">
         <v>36</v>
@@ -6251,12 +6090,12 @@
         <v>6</v>
       </c>
       <c r="H144" t="s">
-        <v>364</v>
+        <v>361</v>
       </c>
     </row>
     <row r="145" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A145" t="s">
-        <v>365</v>
+        <v>362</v>
       </c>
       <c r="B145" t="s">
         <v>54</v>
@@ -6277,12 +6116,12 @@
         <v>6</v>
       </c>
       <c r="H145" t="s">
-        <v>366</v>
+        <v>363</v>
       </c>
     </row>
     <row r="146" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A146" t="s">
-        <v>367</v>
+        <v>364</v>
       </c>
       <c r="B146" t="s">
         <v>54</v>
@@ -6303,12 +6142,12 @@
         <v>6</v>
       </c>
       <c r="H146" t="s">
-        <v>368</v>
+        <v>365</v>
       </c>
     </row>
     <row r="147" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A147" t="s">
-        <v>369</v>
+        <v>366</v>
       </c>
       <c r="B147" t="s">
         <v>36</v>
@@ -6329,12 +6168,12 @@
         <v>6</v>
       </c>
       <c r="H147" t="s">
-        <v>370</v>
+        <v>367</v>
       </c>
     </row>
     <row r="148" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A148" t="s">
-        <v>371</v>
+        <v>368</v>
       </c>
       <c r="B148" t="s">
         <v>58</v>
@@ -6355,12 +6194,12 @@
         <v>6</v>
       </c>
       <c r="H148" t="s">
-        <v>372</v>
+        <v>369</v>
       </c>
     </row>
     <row r="149" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A149" t="s">
-        <v>373</v>
+        <v>370</v>
       </c>
       <c r="B149" t="s">
         <v>58</v>
@@ -6372,7 +6211,7 @@
         <v>10</v>
       </c>
       <c r="E149" t="s">
-        <v>374</v>
+        <v>371</v>
       </c>
       <c r="F149" t="s">
         <v>5</v>
@@ -6381,12 +6220,12 @@
         <v>6</v>
       </c>
       <c r="H149" t="s">
-        <v>375</v>
+        <v>372</v>
       </c>
     </row>
     <row r="150" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A150" t="s">
-        <v>376</v>
+        <v>373</v>
       </c>
       <c r="B150" t="s">
         <v>36</v>
@@ -6407,12 +6246,12 @@
         <v>6</v>
       </c>
       <c r="H150" t="s">
-        <v>377</v>
+        <v>374</v>
       </c>
     </row>
     <row r="151" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A151" t="s">
-        <v>378</v>
+        <v>375</v>
       </c>
       <c r="B151" t="s">
         <v>30</v>
@@ -6433,12 +6272,12 @@
         <v>6</v>
       </c>
       <c r="H151" t="s">
-        <v>379</v>
+        <v>376</v>
       </c>
     </row>
     <row r="152" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A152" t="s">
-        <v>380</v>
+        <v>377</v>
       </c>
       <c r="B152" t="s">
         <v>54</v>
@@ -6459,12 +6298,12 @@
         <v>6</v>
       </c>
       <c r="H152" t="s">
-        <v>381</v>
+        <v>378</v>
       </c>
     </row>
     <row r="153" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A153" t="s">
-        <v>382</v>
+        <v>379</v>
       </c>
       <c r="B153" t="s">
         <v>36</v>
@@ -6485,12 +6324,12 @@
         <v>6</v>
       </c>
       <c r="H153" t="s">
-        <v>383</v>
+        <v>380</v>
       </c>
     </row>
     <row r="154" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A154" t="s">
-        <v>384</v>
+        <v>381</v>
       </c>
       <c r="B154" t="s">
         <v>54</v>
@@ -6511,12 +6350,12 @@
         <v>6</v>
       </c>
       <c r="H154" t="s">
-        <v>385</v>
+        <v>382</v>
       </c>
     </row>
     <row r="155" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A155" t="s">
-        <v>386</v>
+        <v>383</v>
       </c>
       <c r="B155" t="s">
         <v>58</v>
@@ -6537,12 +6376,12 @@
         <v>6</v>
       </c>
       <c r="H155" t="s">
-        <v>387</v>
+        <v>384</v>
       </c>
     </row>
     <row r="156" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A156" t="s">
-        <v>388</v>
+        <v>385</v>
       </c>
       <c r="B156" t="s">
         <v>30</v>
@@ -6554,7 +6393,7 @@
         <v>18</v>
       </c>
       <c r="E156" t="s">
-        <v>248</v>
+        <v>247</v>
       </c>
       <c r="F156" t="s">
         <v>5</v>
@@ -6563,12 +6402,12 @@
         <v>6</v>
       </c>
       <c r="H156" t="s">
-        <v>389</v>
+        <v>386</v>
       </c>
     </row>
     <row r="157" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A157" t="s">
-        <v>390</v>
+        <v>387</v>
       </c>
       <c r="B157" t="s">
         <v>36</v>
@@ -6589,12 +6428,12 @@
         <v>6</v>
       </c>
       <c r="H157" t="s">
-        <v>391</v>
+        <v>388</v>
       </c>
     </row>
     <row r="158" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A158" t="s">
-        <v>392</v>
+        <v>389</v>
       </c>
       <c r="B158" t="s">
         <v>58</v>
@@ -6615,12 +6454,12 @@
         <v>6</v>
       </c>
       <c r="H158" t="s">
-        <v>393</v>
+        <v>390</v>
       </c>
     </row>
     <row r="159" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A159" t="s">
-        <v>394</v>
+        <v>391</v>
       </c>
       <c r="B159" t="s">
         <v>36</v>
@@ -6641,12 +6480,12 @@
         <v>6</v>
       </c>
       <c r="H159" t="s">
-        <v>395</v>
+        <v>392</v>
       </c>
     </row>
     <row r="160" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A160" t="s">
-        <v>396</v>
+        <v>393</v>
       </c>
       <c r="B160" t="s">
         <v>54</v>
@@ -6667,12 +6506,12 @@
         <v>6</v>
       </c>
       <c r="H160" t="s">
-        <v>397</v>
-      </c>
-    </row>
-    <row r="161" spans="1:10" x14ac:dyDescent="0.3">
+        <v>394</v>
+      </c>
+    </row>
+    <row r="161" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A161" t="s">
-        <v>398</v>
+        <v>395</v>
       </c>
       <c r="B161" t="s">
         <v>36</v>
@@ -6693,12 +6532,12 @@
         <v>6</v>
       </c>
       <c r="H161" t="s">
-        <v>399</v>
-      </c>
-    </row>
-    <row r="162" spans="1:10" x14ac:dyDescent="0.3">
+        <v>396</v>
+      </c>
+    </row>
+    <row r="162" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A162" t="s">
-        <v>400</v>
+        <v>397</v>
       </c>
       <c r="B162" t="s">
         <v>36</v>
@@ -6719,12 +6558,12 @@
         <v>6</v>
       </c>
       <c r="H162" t="s">
-        <v>401</v>
-      </c>
-    </row>
-    <row r="163" spans="1:10" x14ac:dyDescent="0.3">
+        <v>398</v>
+      </c>
+    </row>
+    <row r="163" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A163" t="s">
-        <v>402</v>
+        <v>399</v>
       </c>
       <c r="B163" t="s">
         <v>54</v>
@@ -6745,18 +6584,18 @@
         <v>6</v>
       </c>
       <c r="H163" t="s">
-        <v>403</v>
-      </c>
-    </row>
-    <row r="164" spans="1:10" x14ac:dyDescent="0.3">
+        <v>400</v>
+      </c>
+    </row>
+    <row r="164" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A164" t="s">
-        <v>404</v>
+        <v>401</v>
       </c>
       <c r="B164" t="s">
         <v>58</v>
       </c>
       <c r="C164" t="s">
-        <v>405</v>
+        <v>402</v>
       </c>
       <c r="D164" t="s">
         <v>88</v>
@@ -6771,12 +6610,12 @@
         <v>6</v>
       </c>
       <c r="H164" t="s">
-        <v>406</v>
-      </c>
-    </row>
-    <row r="165" spans="1:10" x14ac:dyDescent="0.3">
+        <v>403</v>
+      </c>
+    </row>
+    <row r="165" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A165" t="s">
-        <v>407</v>
+        <v>404</v>
       </c>
       <c r="B165" t="s">
         <v>58</v>
@@ -6797,12 +6636,12 @@
         <v>6</v>
       </c>
       <c r="H165" t="s">
-        <v>408</v>
-      </c>
-    </row>
-    <row r="166" spans="1:10" x14ac:dyDescent="0.3">
+        <v>405</v>
+      </c>
+    </row>
+    <row r="166" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A166" t="s">
-        <v>409</v>
+        <v>406</v>
       </c>
       <c r="B166" t="s">
         <v>58</v>
@@ -6811,7 +6650,7 @@
         <v>118</v>
       </c>
       <c r="D166" t="s">
-        <v>410</v>
+        <v>407</v>
       </c>
       <c r="E166" t="s">
         <v>4</v>
@@ -6823,12 +6662,12 @@
         <v>6</v>
       </c>
       <c r="H166" t="s">
-        <v>411</v>
-      </c>
-    </row>
-    <row r="167" spans="1:10" x14ac:dyDescent="0.3">
+        <v>408</v>
+      </c>
+    </row>
+    <row r="167" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A167" t="s">
-        <v>412</v>
+        <v>409</v>
       </c>
       <c r="B167" t="s">
         <v>58</v>
@@ -6849,12 +6688,12 @@
         <v>6</v>
       </c>
       <c r="H167" t="s">
-        <v>413</v>
-      </c>
-    </row>
-    <row r="168" spans="1:10" x14ac:dyDescent="0.3">
+        <v>410</v>
+      </c>
+    </row>
+    <row r="168" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A168" t="s">
-        <v>414</v>
+        <v>411</v>
       </c>
       <c r="B168" t="s">
         <v>36</v>
@@ -6875,12 +6714,12 @@
         <v>6</v>
       </c>
       <c r="H168" t="s">
-        <v>415</v>
-      </c>
-    </row>
-    <row r="169" spans="1:10" x14ac:dyDescent="0.3">
+        <v>412</v>
+      </c>
+    </row>
+    <row r="169" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A169" t="s">
-        <v>416</v>
+        <v>413</v>
       </c>
       <c r="B169" t="s">
         <v>36</v>
@@ -6901,12 +6740,12 @@
         <v>6</v>
       </c>
       <c r="H169" t="s">
-        <v>417</v>
-      </c>
-    </row>
-    <row r="170" spans="1:10" x14ac:dyDescent="0.3">
+        <v>414</v>
+      </c>
+    </row>
+    <row r="170" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A170" t="s">
-        <v>418</v>
+        <v>415</v>
       </c>
       <c r="B170" t="s">
         <v>36</v>
@@ -6918,7 +6757,7 @@
         <v>88</v>
       </c>
       <c r="E170" t="s">
-        <v>248</v>
+        <v>247</v>
       </c>
       <c r="F170" t="s">
         <v>5</v>
@@ -6927,12 +6766,12 @@
         <v>6</v>
       </c>
       <c r="H170" t="s">
-        <v>419</v>
-      </c>
-    </row>
-    <row r="171" spans="1:10" x14ac:dyDescent="0.3">
+        <v>416</v>
+      </c>
+    </row>
+    <row r="171" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A171" t="s">
-        <v>420</v>
+        <v>417</v>
       </c>
       <c r="B171" t="s">
         <v>1</v>
@@ -6953,12 +6792,12 @@
         <v>6</v>
       </c>
       <c r="H171" t="s">
-        <v>421</v>
-      </c>
-    </row>
-    <row r="172" spans="1:10" x14ac:dyDescent="0.3">
+        <v>418</v>
+      </c>
+    </row>
+    <row r="172" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A172" t="s">
-        <v>422</v>
+        <v>419</v>
       </c>
       <c r="B172" t="s">
         <v>54</v>
@@ -6979,18 +6818,12 @@
         <v>6</v>
       </c>
       <c r="H172" t="s">
-        <v>423</v>
-      </c>
-      <c r="I172" t="s">
-        <v>424</v>
-      </c>
-      <c r="J172" t="s">
-        <v>425</v>
-      </c>
-    </row>
-    <row r="173" spans="1:10" x14ac:dyDescent="0.3">
+        <v>420</v>
+      </c>
+    </row>
+    <row r="173" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A173" t="s">
-        <v>426</v>
+        <v>421</v>
       </c>
       <c r="B173" t="s">
         <v>36</v>
@@ -6999,7 +6832,7 @@
         <v>43</v>
       </c>
       <c r="D173" t="s">
-        <v>247</v>
+        <v>246</v>
       </c>
       <c r="E173" t="s">
         <v>4</v>
@@ -7011,12 +6844,12 @@
         <v>6</v>
       </c>
       <c r="H173" t="s">
-        <v>427</v>
-      </c>
-    </row>
-    <row r="174" spans="1:10" x14ac:dyDescent="0.3">
+        <v>422</v>
+      </c>
+    </row>
+    <row r="174" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A174" t="s">
-        <v>428</v>
+        <v>423</v>
       </c>
       <c r="B174" t="s">
         <v>36</v>
@@ -7037,12 +6870,12 @@
         <v>6</v>
       </c>
       <c r="H174" t="s">
-        <v>429</v>
-      </c>
-    </row>
-    <row r="175" spans="1:10" x14ac:dyDescent="0.3">
+        <v>424</v>
+      </c>
+    </row>
+    <row r="175" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A175" t="s">
-        <v>430</v>
+        <v>425</v>
       </c>
       <c r="B175" t="s">
         <v>36</v>
@@ -7063,24 +6896,24 @@
         <v>6</v>
       </c>
       <c r="H175" t="s">
-        <v>431</v>
-      </c>
-    </row>
-    <row r="176" spans="1:10" x14ac:dyDescent="0.3">
+        <v>426</v>
+      </c>
+    </row>
+    <row r="176" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A176" t="s">
-        <v>432</v>
+        <v>427</v>
       </c>
       <c r="B176" t="s">
         <v>58</v>
       </c>
       <c r="C176" t="s">
-        <v>433</v>
+        <v>428</v>
       </c>
       <c r="D176" t="s">
         <v>109</v>
       </c>
       <c r="E176" t="s">
-        <v>294</v>
+        <v>293</v>
       </c>
       <c r="F176" t="s">
         <v>5</v>
@@ -7089,12 +6922,12 @@
         <v>6</v>
       </c>
       <c r="H176" t="s">
-        <v>434</v>
+        <v>429</v>
       </c>
     </row>
     <row r="177" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A177" t="s">
-        <v>435</v>
+        <v>430</v>
       </c>
       <c r="B177" t="s">
         <v>58</v>
@@ -7115,12 +6948,12 @@
         <v>6</v>
       </c>
       <c r="H177" t="s">
-        <v>436</v>
+        <v>431</v>
       </c>
     </row>
     <row r="178" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A178" t="s">
-        <v>437</v>
+        <v>432</v>
       </c>
       <c r="B178" t="s">
         <v>36</v>
@@ -7141,12 +6974,12 @@
         <v>6</v>
       </c>
       <c r="H178" t="s">
-        <v>438</v>
+        <v>433</v>
       </c>
     </row>
     <row r="179" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A179" t="s">
-        <v>439</v>
+        <v>434</v>
       </c>
       <c r="B179" t="s">
         <v>36</v>
@@ -7167,12 +7000,12 @@
         <v>6</v>
       </c>
       <c r="H179" t="s">
-        <v>440</v>
+        <v>435</v>
       </c>
     </row>
     <row r="180" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A180" t="s">
-        <v>441</v>
+        <v>436</v>
       </c>
       <c r="B180" t="s">
         <v>36</v>
@@ -7193,12 +7026,12 @@
         <v>6</v>
       </c>
       <c r="H180" t="s">
-        <v>442</v>
+        <v>437</v>
       </c>
     </row>
     <row r="181" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A181" t="s">
-        <v>443</v>
+        <v>438</v>
       </c>
       <c r="B181" t="s">
         <v>58</v>
@@ -7219,18 +7052,18 @@
         <v>6</v>
       </c>
       <c r="H181" t="s">
-        <v>444</v>
+        <v>439</v>
       </c>
     </row>
     <row r="182" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A182" t="s">
-        <v>445</v>
+        <v>440</v>
       </c>
       <c r="B182" t="s">
         <v>36</v>
       </c>
       <c r="C182" t="s">
-        <v>303</v>
+        <v>302</v>
       </c>
       <c r="D182" t="s">
         <v>10</v>
@@ -7245,12 +7078,12 @@
         <v>6</v>
       </c>
       <c r="H182" t="s">
-        <v>446</v>
+        <v>441</v>
       </c>
     </row>
     <row r="183" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A183" t="s">
-        <v>447</v>
+        <v>442</v>
       </c>
       <c r="B183" t="s">
         <v>36</v>
@@ -7271,12 +7104,12 @@
         <v>6</v>
       </c>
       <c r="H183" t="s">
-        <v>448</v>
+        <v>443</v>
       </c>
     </row>
     <row r="184" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A184" t="s">
-        <v>449</v>
+        <v>444</v>
       </c>
       <c r="B184" t="s">
         <v>54</v>
@@ -7297,12 +7130,12 @@
         <v>6</v>
       </c>
       <c r="H184" t="s">
-        <v>450</v>
+        <v>445</v>
       </c>
     </row>
     <row r="185" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A185" t="s">
-        <v>451</v>
+        <v>446</v>
       </c>
       <c r="B185" t="s">
         <v>36</v>
@@ -7323,24 +7156,24 @@
         <v>6</v>
       </c>
       <c r="H185" t="s">
-        <v>452</v>
+        <v>447</v>
       </c>
     </row>
     <row r="186" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A186" t="s">
-        <v>453</v>
+        <v>448</v>
       </c>
       <c r="B186" t="s">
         <v>1</v>
       </c>
       <c r="C186" t="s">
-        <v>297</v>
+        <v>296</v>
       </c>
       <c r="D186" t="s">
         <v>98</v>
       </c>
       <c r="E186" t="s">
-        <v>248</v>
+        <v>247</v>
       </c>
       <c r="F186" t="s">
         <v>5</v>
@@ -7349,12 +7182,12 @@
         <v>6</v>
       </c>
       <c r="H186" t="s">
-        <v>454</v>
+        <v>449</v>
       </c>
     </row>
     <row r="187" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A187" t="s">
-        <v>455</v>
+        <v>450</v>
       </c>
       <c r="B187" t="s">
         <v>36</v>
@@ -7375,12 +7208,12 @@
         <v>6</v>
       </c>
       <c r="H187" t="s">
-        <v>456</v>
+        <v>451</v>
       </c>
     </row>
     <row r="188" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A188" t="s">
-        <v>457</v>
+        <v>452</v>
       </c>
       <c r="B188" t="s">
         <v>54</v>
@@ -7401,12 +7234,12 @@
         <v>6</v>
       </c>
       <c r="H188" t="s">
-        <v>458</v>
+        <v>453</v>
       </c>
     </row>
     <row r="189" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A189" t="s">
-        <v>459</v>
+        <v>454</v>
       </c>
       <c r="B189" t="s">
         <v>54</v>
@@ -7415,7 +7248,7 @@
         <v>9</v>
       </c>
       <c r="D189" t="s">
-        <v>460</v>
+        <v>455</v>
       </c>
       <c r="E189" t="s">
         <v>157</v>
@@ -7427,12 +7260,12 @@
         <v>6</v>
       </c>
       <c r="H189" t="s">
-        <v>461</v>
+        <v>456</v>
       </c>
     </row>
     <row r="190" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A190" t="s">
-        <v>462</v>
+        <v>457</v>
       </c>
       <c r="B190" t="s">
         <v>58</v>
@@ -7453,12 +7286,12 @@
         <v>6</v>
       </c>
       <c r="H190" t="s">
-        <v>463</v>
+        <v>458</v>
       </c>
     </row>
     <row r="191" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A191" t="s">
-        <v>464</v>
+        <v>459</v>
       </c>
       <c r="B191" t="s">
         <v>30</v>
@@ -7479,12 +7312,12 @@
         <v>6</v>
       </c>
       <c r="H191" t="s">
-        <v>465</v>
+        <v>460</v>
       </c>
     </row>
     <row r="192" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A192" t="s">
-        <v>466</v>
+        <v>461</v>
       </c>
       <c r="B192" t="s">
         <v>36</v>
@@ -7505,12 +7338,12 @@
         <v>6</v>
       </c>
       <c r="H192" t="s">
-        <v>467</v>
-      </c>
-    </row>
-    <row r="193" spans="1:12" x14ac:dyDescent="0.3">
+        <v>462</v>
+      </c>
+    </row>
+    <row r="193" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A193" t="s">
-        <v>468</v>
+        <v>463</v>
       </c>
       <c r="B193" t="s">
         <v>36</v>
@@ -7519,7 +7352,7 @@
         <v>43</v>
       </c>
       <c r="D193" t="s">
-        <v>247</v>
+        <v>246</v>
       </c>
       <c r="E193" t="s">
         <v>4</v>
@@ -7531,12 +7364,12 @@
         <v>6</v>
       </c>
       <c r="H193" t="s">
-        <v>469</v>
-      </c>
-    </row>
-    <row r="194" spans="1:12" x14ac:dyDescent="0.3">
+        <v>464</v>
+      </c>
+    </row>
+    <row r="194" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A194" t="s">
-        <v>470</v>
+        <v>465</v>
       </c>
       <c r="B194" t="s">
         <v>54</v>
@@ -7557,24 +7390,12 @@
         <v>6</v>
       </c>
       <c r="H194" t="s">
-        <v>471</v>
-      </c>
-      <c r="I194" t="s">
-        <v>472</v>
-      </c>
-      <c r="J194" t="s">
-        <v>473</v>
-      </c>
-      <c r="K194" t="s">
-        <v>474</v>
-      </c>
-      <c r="L194" t="s">
-        <v>475</v>
-      </c>
-    </row>
-    <row r="195" spans="1:12" x14ac:dyDescent="0.3">
+        <v>466</v>
+      </c>
+    </row>
+    <row r="195" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A195" t="s">
-        <v>476</v>
+        <v>467</v>
       </c>
       <c r="B195" t="s">
         <v>36</v>
@@ -7595,18 +7416,18 @@
         <v>6</v>
       </c>
       <c r="H195" t="s">
-        <v>477</v>
-      </c>
-    </row>
-    <row r="196" spans="1:12" x14ac:dyDescent="0.3">
+        <v>468</v>
+      </c>
+    </row>
+    <row r="196" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A196" t="s">
-        <v>478</v>
+        <v>469</v>
       </c>
       <c r="B196" t="s">
         <v>54</v>
       </c>
       <c r="C196" t="s">
-        <v>479</v>
+        <v>470</v>
       </c>
       <c r="D196" t="s">
         <v>10</v>
@@ -7621,18 +7442,18 @@
         <v>6</v>
       </c>
       <c r="H196" t="s">
-        <v>480</v>
-      </c>
-    </row>
-    <row r="197" spans="1:12" x14ac:dyDescent="0.3">
+        <v>471</v>
+      </c>
+    </row>
+    <row r="197" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A197" t="s">
-        <v>481</v>
+        <v>472</v>
       </c>
       <c r="B197" t="s">
         <v>36</v>
       </c>
       <c r="C197" t="s">
-        <v>303</v>
+        <v>302</v>
       </c>
       <c r="D197" t="s">
         <v>10</v>
@@ -7647,12 +7468,12 @@
         <v>6</v>
       </c>
       <c r="H197" t="s">
-        <v>482</v>
-      </c>
-    </row>
-    <row r="198" spans="1:12" x14ac:dyDescent="0.3">
+        <v>473</v>
+      </c>
+    </row>
+    <row r="198" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A198" t="s">
-        <v>483</v>
+        <v>474</v>
       </c>
       <c r="B198" t="s">
         <v>54</v>
@@ -7673,12 +7494,12 @@
         <v>6</v>
       </c>
       <c r="H198" t="s">
-        <v>484</v>
-      </c>
-    </row>
-    <row r="199" spans="1:12" x14ac:dyDescent="0.3">
+        <v>475</v>
+      </c>
+    </row>
+    <row r="199" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A199" t="s">
-        <v>485</v>
+        <v>476</v>
       </c>
       <c r="B199" t="s">
         <v>36</v>
@@ -7687,7 +7508,7 @@
         <v>46</v>
       </c>
       <c r="D199" t="s">
-        <v>486</v>
+        <v>477</v>
       </c>
       <c r="E199" t="s">
         <v>4</v>
@@ -7699,18 +7520,18 @@
         <v>6</v>
       </c>
       <c r="H199" t="s">
-        <v>487</v>
-      </c>
-    </row>
-    <row r="200" spans="1:12" x14ac:dyDescent="0.3">
+        <v>478</v>
+      </c>
+    </row>
+    <row r="200" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A200" t="s">
-        <v>488</v>
+        <v>479</v>
       </c>
       <c r="B200" t="s">
         <v>30</v>
       </c>
       <c r="C200" t="s">
-        <v>489</v>
+        <v>480</v>
       </c>
       <c r="D200" t="s">
         <v>18</v>
@@ -7725,12 +7546,12 @@
         <v>6</v>
       </c>
       <c r="H200" t="s">
-        <v>490</v>
-      </c>
-    </row>
-    <row r="201" spans="1:12" x14ac:dyDescent="0.3">
+        <v>481</v>
+      </c>
+    </row>
+    <row r="201" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A201" t="s">
-        <v>491</v>
+        <v>482</v>
       </c>
       <c r="B201" t="s">
         <v>58</v>
@@ -7751,12 +7572,12 @@
         <v>6</v>
       </c>
       <c r="H201" t="s">
-        <v>492</v>
-      </c>
-    </row>
-    <row r="202" spans="1:12" x14ac:dyDescent="0.3">
+        <v>483</v>
+      </c>
+    </row>
+    <row r="202" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A202" t="s">
-        <v>493</v>
+        <v>484</v>
       </c>
       <c r="B202" t="s">
         <v>36</v>
@@ -7777,12 +7598,12 @@
         <v>6</v>
       </c>
       <c r="H202" t="s">
-        <v>494</v>
-      </c>
-    </row>
-    <row r="203" spans="1:12" x14ac:dyDescent="0.3">
+        <v>485</v>
+      </c>
+    </row>
+    <row r="203" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A203" t="s">
-        <v>495</v>
+        <v>486</v>
       </c>
       <c r="B203" t="s">
         <v>36</v>
@@ -7803,12 +7624,12 @@
         <v>6</v>
       </c>
       <c r="H203" t="s">
-        <v>496</v>
-      </c>
-    </row>
-    <row r="204" spans="1:12" x14ac:dyDescent="0.3">
+        <v>487</v>
+      </c>
+    </row>
+    <row r="204" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A204" t="s">
-        <v>497</v>
+        <v>488</v>
       </c>
       <c r="B204" t="s">
         <v>36</v>
@@ -7829,12 +7650,12 @@
         <v>6</v>
       </c>
       <c r="H204" t="s">
-        <v>498</v>
-      </c>
-    </row>
-    <row r="205" spans="1:12" x14ac:dyDescent="0.3">
+        <v>489</v>
+      </c>
+    </row>
+    <row r="205" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A205" t="s">
-        <v>499</v>
+        <v>490</v>
       </c>
       <c r="B205" t="s">
         <v>30</v>
@@ -7855,12 +7676,12 @@
         <v>6</v>
       </c>
       <c r="H205" t="s">
-        <v>500</v>
-      </c>
-    </row>
-    <row r="206" spans="1:12" x14ac:dyDescent="0.3">
+        <v>491</v>
+      </c>
+    </row>
+    <row r="206" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A206" t="s">
-        <v>501</v>
+        <v>492</v>
       </c>
       <c r="B206" t="s">
         <v>54</v>
@@ -7872,7 +7693,7 @@
         <v>10</v>
       </c>
       <c r="E206" t="s">
-        <v>374</v>
+        <v>371</v>
       </c>
       <c r="F206" t="s">
         <v>5</v>
@@ -7881,12 +7702,12 @@
         <v>6</v>
       </c>
       <c r="H206" t="s">
-        <v>502</v>
-      </c>
-    </row>
-    <row r="207" spans="1:12" x14ac:dyDescent="0.3">
+        <v>493</v>
+      </c>
+    </row>
+    <row r="207" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A207" t="s">
-        <v>503</v>
+        <v>494</v>
       </c>
       <c r="B207" t="s">
         <v>54</v>
@@ -7895,10 +7716,10 @@
         <v>118</v>
       </c>
       <c r="D207" t="s">
-        <v>247</v>
+        <v>246</v>
       </c>
       <c r="E207" t="s">
-        <v>374</v>
+        <v>371</v>
       </c>
       <c r="F207" t="s">
         <v>5</v>
@@ -7907,18 +7728,18 @@
         <v>6</v>
       </c>
       <c r="H207" t="s">
-        <v>504</v>
-      </c>
-    </row>
-    <row r="208" spans="1:12" x14ac:dyDescent="0.3">
+        <v>495</v>
+      </c>
+    </row>
+    <row r="208" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A208" t="s">
-        <v>505</v>
+        <v>496</v>
       </c>
       <c r="B208" t="s">
         <v>30</v>
       </c>
       <c r="C208" t="s">
-        <v>506</v>
+        <v>497</v>
       </c>
       <c r="D208" t="s">
         <v>26</v>
@@ -7933,12 +7754,12 @@
         <v>6</v>
       </c>
       <c r="H208" t="s">
-        <v>507</v>
-      </c>
-    </row>
-    <row r="209" spans="1:13" x14ac:dyDescent="0.3">
+        <v>498</v>
+      </c>
+    </row>
+    <row r="209" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A209" t="s">
-        <v>508</v>
+        <v>499</v>
       </c>
       <c r="B209" t="s">
         <v>58</v>
@@ -7959,12 +7780,12 @@
         <v>6</v>
       </c>
       <c r="H209" t="s">
-        <v>509</v>
-      </c>
-    </row>
-    <row r="210" spans="1:13" x14ac:dyDescent="0.3">
+        <v>500</v>
+      </c>
+    </row>
+    <row r="210" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A210" t="s">
-        <v>510</v>
+        <v>501</v>
       </c>
       <c r="B210" t="s">
         <v>54</v>
@@ -7985,12 +7806,12 @@
         <v>6</v>
       </c>
       <c r="H210" t="s">
-        <v>511</v>
-      </c>
-    </row>
-    <row r="211" spans="1:13" x14ac:dyDescent="0.3">
+        <v>502</v>
+      </c>
+    </row>
+    <row r="211" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A211" t="s">
-        <v>512</v>
+        <v>503</v>
       </c>
       <c r="B211" t="s">
         <v>36</v>
@@ -8011,12 +7832,12 @@
         <v>6</v>
       </c>
       <c r="H211" t="s">
-        <v>513</v>
-      </c>
-    </row>
-    <row r="212" spans="1:13" x14ac:dyDescent="0.3">
+        <v>504</v>
+      </c>
+    </row>
+    <row r="212" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A212" t="s">
-        <v>514</v>
+        <v>505</v>
       </c>
       <c r="B212" t="s">
         <v>54</v>
@@ -8037,18 +7858,12 @@
         <v>6</v>
       </c>
       <c r="H212" t="s">
-        <v>515</v>
-      </c>
-      <c r="I212" t="s">
-        <v>516</v>
-      </c>
-      <c r="J212" t="s">
-        <v>517</v>
-      </c>
-    </row>
-    <row r="213" spans="1:13" x14ac:dyDescent="0.3">
+        <v>506</v>
+      </c>
+    </row>
+    <row r="213" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A213" t="s">
-        <v>518</v>
+        <v>507</v>
       </c>
       <c r="B213" t="s">
         <v>54</v>
@@ -8069,12 +7884,12 @@
         <v>6</v>
       </c>
       <c r="H213" t="s">
-        <v>519</v>
-      </c>
-    </row>
-    <row r="214" spans="1:13" x14ac:dyDescent="0.3">
+        <v>508</v>
+      </c>
+    </row>
+    <row r="214" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A214" t="s">
-        <v>520</v>
+        <v>509</v>
       </c>
       <c r="B214" t="s">
         <v>36</v>
@@ -8095,12 +7910,12 @@
         <v>6</v>
       </c>
       <c r="H214" t="s">
-        <v>521</v>
-      </c>
-    </row>
-    <row r="215" spans="1:13" x14ac:dyDescent="0.3">
+        <v>510</v>
+      </c>
+    </row>
+    <row r="215" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A215" t="s">
-        <v>522</v>
+        <v>511</v>
       </c>
       <c r="B215" t="s">
         <v>54</v>
@@ -8109,7 +7924,7 @@
         <v>43</v>
       </c>
       <c r="D215" t="s">
-        <v>247</v>
+        <v>246</v>
       </c>
       <c r="E215" t="s">
         <v>4</v>
@@ -8121,12 +7936,12 @@
         <v>6</v>
       </c>
       <c r="H215" t="s">
-        <v>523</v>
-      </c>
-    </row>
-    <row r="216" spans="1:13" x14ac:dyDescent="0.3">
+        <v>512</v>
+      </c>
+    </row>
+    <row r="216" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A216" t="s">
-        <v>524</v>
+        <v>513</v>
       </c>
       <c r="B216" t="s">
         <v>58</v>
@@ -8138,7 +7953,7 @@
         <v>82</v>
       </c>
       <c r="E216" t="s">
-        <v>294</v>
+        <v>293</v>
       </c>
       <c r="F216" t="s">
         <v>5</v>
@@ -8147,24 +7962,24 @@
         <v>6</v>
       </c>
       <c r="H216" t="s">
-        <v>525</v>
-      </c>
-    </row>
-    <row r="217" spans="1:13" x14ac:dyDescent="0.3">
+        <v>514</v>
+      </c>
+    </row>
+    <row r="217" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A217" t="s">
-        <v>526</v>
+        <v>515</v>
       </c>
       <c r="B217" t="s">
         <v>36</v>
       </c>
       <c r="C217" t="s">
-        <v>479</v>
+        <v>470</v>
       </c>
       <c r="D217" t="s">
         <v>98</v>
       </c>
       <c r="E217" t="s">
-        <v>374</v>
+        <v>371</v>
       </c>
       <c r="F217" t="s">
         <v>5</v>
@@ -8173,18 +7988,18 @@
         <v>6</v>
       </c>
       <c r="H217" t="s">
-        <v>527</v>
-      </c>
-    </row>
-    <row r="218" spans="1:13" x14ac:dyDescent="0.3">
+        <v>516</v>
+      </c>
+    </row>
+    <row r="218" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A218" t="s">
-        <v>528</v>
+        <v>517</v>
       </c>
       <c r="B218" t="s">
         <v>30</v>
       </c>
       <c r="C218" t="s">
-        <v>308</v>
+        <v>307</v>
       </c>
       <c r="D218" t="s">
         <v>49</v>
@@ -8199,27 +8014,12 @@
         <v>6</v>
       </c>
       <c r="H218" t="s">
-        <v>529</v>
-      </c>
-      <c r="I218" t="s">
-        <v>530</v>
-      </c>
-      <c r="J218" t="s">
-        <v>531</v>
-      </c>
-      <c r="K218" t="s">
-        <v>532</v>
-      </c>
-      <c r="L218" t="s">
-        <v>533</v>
-      </c>
-      <c r="M218" t="s">
-        <v>534</v>
-      </c>
-    </row>
-    <row r="219" spans="1:13" x14ac:dyDescent="0.3">
+        <v>518</v>
+      </c>
+    </row>
+    <row r="219" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A219" t="s">
-        <v>535</v>
+        <v>519</v>
       </c>
       <c r="B219" t="s">
         <v>54</v>
@@ -8240,21 +8040,21 @@
         <v>6</v>
       </c>
       <c r="H219" t="s">
-        <v>536</v>
-      </c>
-    </row>
-    <row r="220" spans="1:13" x14ac:dyDescent="0.3">
+        <v>520</v>
+      </c>
+    </row>
+    <row r="220" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A220" t="s">
-        <v>537</v>
+        <v>521</v>
       </c>
       <c r="B220" t="s">
         <v>30</v>
       </c>
       <c r="C220" t="s">
-        <v>538</v>
+        <v>522</v>
       </c>
       <c r="D220" t="s">
-        <v>247</v>
+        <v>246</v>
       </c>
       <c r="E220" t="s">
         <v>33</v>
@@ -8266,12 +8066,12 @@
         <v>6</v>
       </c>
       <c r="H220" t="s">
-        <v>539</v>
-      </c>
-    </row>
-    <row r="221" spans="1:13" x14ac:dyDescent="0.3">
+        <v>523</v>
+      </c>
+    </row>
+    <row r="221" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A221" t="s">
-        <v>540</v>
+        <v>524</v>
       </c>
       <c r="B221" t="s">
         <v>36</v>
@@ -8292,12 +8092,12 @@
         <v>6</v>
       </c>
       <c r="H221" t="s">
-        <v>541</v>
-      </c>
-    </row>
-    <row r="222" spans="1:13" x14ac:dyDescent="0.3">
+        <v>525</v>
+      </c>
+    </row>
+    <row r="222" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A222" t="s">
-        <v>542</v>
+        <v>526</v>
       </c>
       <c r="B222" t="s">
         <v>36</v>
@@ -8318,18 +8118,12 @@
         <v>6</v>
       </c>
       <c r="H222" t="s">
-        <v>543</v>
-      </c>
-      <c r="I222" t="s">
-        <v>544</v>
-      </c>
-      <c r="J222" t="s">
-        <v>545</v>
-      </c>
-    </row>
-    <row r="223" spans="1:13" x14ac:dyDescent="0.3">
+        <v>527</v>
+      </c>
+    </row>
+    <row r="223" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A223" t="s">
-        <v>546</v>
+        <v>528</v>
       </c>
       <c r="B223" t="s">
         <v>36</v>
@@ -8341,7 +8135,7 @@
         <v>26</v>
       </c>
       <c r="E223" t="s">
-        <v>374</v>
+        <v>371</v>
       </c>
       <c r="F223" t="s">
         <v>5</v>
@@ -8350,12 +8144,12 @@
         <v>6</v>
       </c>
       <c r="H223" t="s">
-        <v>547</v>
-      </c>
-    </row>
-    <row r="224" spans="1:13" x14ac:dyDescent="0.3">
+        <v>529</v>
+      </c>
+    </row>
+    <row r="224" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A224" t="s">
-        <v>548</v>
+        <v>530</v>
       </c>
       <c r="B224" t="s">
         <v>58</v>
@@ -8367,7 +8161,7 @@
         <v>82</v>
       </c>
       <c r="E224" t="s">
-        <v>374</v>
+        <v>371</v>
       </c>
       <c r="F224" t="s">
         <v>5</v>
@@ -8376,12 +8170,12 @@
         <v>6</v>
       </c>
       <c r="H224" t="s">
-        <v>549</v>
-      </c>
-    </row>
-    <row r="225" spans="1:10" x14ac:dyDescent="0.3">
+        <v>531</v>
+      </c>
+    </row>
+    <row r="225" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A225" t="s">
-        <v>550</v>
+        <v>532</v>
       </c>
       <c r="B225" t="s">
         <v>58</v>
@@ -8393,7 +8187,7 @@
         <v>88</v>
       </c>
       <c r="E225" t="s">
-        <v>374</v>
+        <v>371</v>
       </c>
       <c r="F225" t="s">
         <v>5</v>
@@ -8402,12 +8196,12 @@
         <v>6</v>
       </c>
       <c r="H225" t="s">
-        <v>551</v>
-      </c>
-    </row>
-    <row r="226" spans="1:10" x14ac:dyDescent="0.3">
+        <v>533</v>
+      </c>
+    </row>
+    <row r="226" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A226" t="s">
-        <v>552</v>
+        <v>534</v>
       </c>
       <c r="B226" t="s">
         <v>36</v>
@@ -8419,7 +8213,7 @@
         <v>14</v>
       </c>
       <c r="E226" t="s">
-        <v>339</v>
+        <v>336</v>
       </c>
       <c r="F226" t="s">
         <v>5</v>
@@ -8428,12 +8222,12 @@
         <v>6</v>
       </c>
       <c r="H226" t="s">
-        <v>553</v>
-      </c>
-    </row>
-    <row r="227" spans="1:10" x14ac:dyDescent="0.3">
+        <v>535</v>
+      </c>
+    </row>
+    <row r="227" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A227" t="s">
-        <v>554</v>
+        <v>536</v>
       </c>
       <c r="B227" t="s">
         <v>54</v>
@@ -8445,7 +8239,7 @@
         <v>109</v>
       </c>
       <c r="E227" t="s">
-        <v>339</v>
+        <v>336</v>
       </c>
       <c r="F227" t="s">
         <v>5</v>
@@ -8454,12 +8248,12 @@
         <v>6</v>
       </c>
       <c r="H227" t="s">
-        <v>555</v>
-      </c>
-    </row>
-    <row r="228" spans="1:10" x14ac:dyDescent="0.3">
+        <v>537</v>
+      </c>
+    </row>
+    <row r="228" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A228" t="s">
-        <v>556</v>
+        <v>538</v>
       </c>
       <c r="B228" t="s">
         <v>54</v>
@@ -8480,18 +8274,18 @@
         <v>6</v>
       </c>
       <c r="H228" t="s">
-        <v>557</v>
-      </c>
-    </row>
-    <row r="229" spans="1:10" x14ac:dyDescent="0.3">
+        <v>539</v>
+      </c>
+    </row>
+    <row r="229" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A229" t="s">
-        <v>558</v>
+        <v>540</v>
       </c>
       <c r="B229" t="s">
         <v>54</v>
       </c>
       <c r="C229" t="s">
-        <v>303</v>
+        <v>302</v>
       </c>
       <c r="D229" t="s">
         <v>18</v>
@@ -8506,12 +8300,12 @@
         <v>6</v>
       </c>
       <c r="H229" t="s">
-        <v>559</v>
-      </c>
-    </row>
-    <row r="230" spans="1:10" x14ac:dyDescent="0.3">
+        <v>541</v>
+      </c>
+    </row>
+    <row r="230" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A230" t="s">
-        <v>560</v>
+        <v>542</v>
       </c>
       <c r="B230" t="s">
         <v>36</v>
@@ -8532,12 +8326,12 @@
         <v>6</v>
       </c>
       <c r="H230" t="s">
-        <v>561</v>
-      </c>
-    </row>
-    <row r="231" spans="1:10" x14ac:dyDescent="0.3">
+        <v>543</v>
+      </c>
+    </row>
+    <row r="231" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A231" t="s">
-        <v>562</v>
+        <v>544</v>
       </c>
       <c r="B231" t="s">
         <v>54</v>
@@ -8549,7 +8343,7 @@
         <v>109</v>
       </c>
       <c r="E231" t="s">
-        <v>294</v>
+        <v>293</v>
       </c>
       <c r="F231" t="s">
         <v>5</v>
@@ -8558,12 +8352,12 @@
         <v>6</v>
       </c>
       <c r="H231" t="s">
-        <v>563</v>
-      </c>
-    </row>
-    <row r="232" spans="1:10" x14ac:dyDescent="0.3">
+        <v>545</v>
+      </c>
+    </row>
+    <row r="232" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A232" t="s">
-        <v>564</v>
+        <v>546</v>
       </c>
       <c r="B232" t="s">
         <v>54</v>
@@ -8584,12 +8378,12 @@
         <v>6</v>
       </c>
       <c r="H232" t="s">
-        <v>565</v>
-      </c>
-    </row>
-    <row r="233" spans="1:10" x14ac:dyDescent="0.3">
+        <v>547</v>
+      </c>
+    </row>
+    <row r="233" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A233" t="s">
-        <v>566</v>
+        <v>548</v>
       </c>
       <c r="B233" t="s">
         <v>58</v>
@@ -8601,7 +8395,7 @@
         <v>109</v>
       </c>
       <c r="E233" t="s">
-        <v>294</v>
+        <v>293</v>
       </c>
       <c r="F233" t="s">
         <v>5</v>
@@ -8610,12 +8404,12 @@
         <v>6</v>
       </c>
       <c r="H233" t="s">
-        <v>567</v>
-      </c>
-    </row>
-    <row r="234" spans="1:10" x14ac:dyDescent="0.3">
+        <v>549</v>
+      </c>
+    </row>
+    <row r="234" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A234" t="s">
-        <v>568</v>
+        <v>550</v>
       </c>
       <c r="B234" t="s">
         <v>54</v>
@@ -8627,7 +8421,7 @@
         <v>26</v>
       </c>
       <c r="E234" t="s">
-        <v>339</v>
+        <v>336</v>
       </c>
       <c r="F234" t="s">
         <v>5</v>
@@ -8636,18 +8430,18 @@
         <v>6</v>
       </c>
       <c r="H234" t="s">
-        <v>569</v>
-      </c>
-    </row>
-    <row r="235" spans="1:10" x14ac:dyDescent="0.3">
+        <v>551</v>
+      </c>
+    </row>
+    <row r="235" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A235" t="s">
-        <v>570</v>
+        <v>552</v>
       </c>
       <c r="B235" t="s">
         <v>54</v>
       </c>
       <c r="C235" t="s">
-        <v>571</v>
+        <v>553</v>
       </c>
       <c r="D235" t="s">
         <v>88</v>
@@ -8662,12 +8456,12 @@
         <v>6</v>
       </c>
       <c r="H235" t="s">
-        <v>572</v>
-      </c>
-    </row>
-    <row r="236" spans="1:10" x14ac:dyDescent="0.3">
+        <v>554</v>
+      </c>
+    </row>
+    <row r="236" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A236" t="s">
-        <v>573</v>
+        <v>555</v>
       </c>
       <c r="B236" t="s">
         <v>36</v>
@@ -8688,12 +8482,12 @@
         <v>6</v>
       </c>
       <c r="H236" t="s">
-        <v>574</v>
-      </c>
-    </row>
-    <row r="237" spans="1:10" x14ac:dyDescent="0.3">
+        <v>556</v>
+      </c>
+    </row>
+    <row r="237" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A237" t="s">
-        <v>575</v>
+        <v>557</v>
       </c>
       <c r="B237" t="s">
         <v>36</v>
@@ -8705,7 +8499,7 @@
         <v>98</v>
       </c>
       <c r="E237" t="s">
-        <v>374</v>
+        <v>371</v>
       </c>
       <c r="F237" t="s">
         <v>5</v>
@@ -8714,12 +8508,12 @@
         <v>6</v>
       </c>
       <c r="H237" t="s">
-        <v>576</v>
-      </c>
-    </row>
-    <row r="238" spans="1:10" x14ac:dyDescent="0.3">
+        <v>558</v>
+      </c>
+    </row>
+    <row r="238" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A238" t="s">
-        <v>577</v>
+        <v>559</v>
       </c>
       <c r="B238" t="s">
         <v>36</v>
@@ -8731,7 +8525,7 @@
         <v>18</v>
       </c>
       <c r="E238" t="s">
-        <v>578</v>
+        <v>560</v>
       </c>
       <c r="F238" t="s">
         <v>5</v>
@@ -8740,18 +8534,12 @@
         <v>6</v>
       </c>
       <c r="H238" t="s">
-        <v>579</v>
-      </c>
-      <c r="I238" t="s">
-        <v>580</v>
-      </c>
-      <c r="J238" t="s">
-        <v>581</v>
-      </c>
-    </row>
-    <row r="239" spans="1:10" x14ac:dyDescent="0.3">
+        <v>561</v>
+      </c>
+    </row>
+    <row r="239" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A239" t="s">
-        <v>582</v>
+        <v>562</v>
       </c>
       <c r="B239" t="s">
         <v>54</v>
@@ -8763,7 +8551,7 @@
         <v>63</v>
       </c>
       <c r="E239" t="s">
-        <v>583</v>
+        <v>563</v>
       </c>
       <c r="F239" t="s">
         <v>5</v>
@@ -8772,12 +8560,12 @@
         <v>6</v>
       </c>
       <c r="H239" t="s">
-        <v>584</v>
-      </c>
-    </row>
-    <row r="240" spans="1:10" x14ac:dyDescent="0.3">
+        <v>564</v>
+      </c>
+    </row>
+    <row r="240" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A240" t="s">
-        <v>585</v>
+        <v>565</v>
       </c>
       <c r="B240" t="s">
         <v>36</v>
@@ -8798,12 +8586,12 @@
         <v>6</v>
       </c>
       <c r="H240" t="s">
-        <v>586</v>
-      </c>
-    </row>
-    <row r="241" spans="1:12" x14ac:dyDescent="0.3">
+        <v>566</v>
+      </c>
+    </row>
+    <row r="241" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A241" t="s">
-        <v>587</v>
+        <v>567</v>
       </c>
       <c r="B241" t="s">
         <v>58</v>
@@ -8824,12 +8612,12 @@
         <v>6</v>
       </c>
       <c r="H241" t="s">
-        <v>588</v>
-      </c>
-    </row>
-    <row r="242" spans="1:12" x14ac:dyDescent="0.3">
+        <v>568</v>
+      </c>
+    </row>
+    <row r="242" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A242" t="s">
-        <v>589</v>
+        <v>569</v>
       </c>
       <c r="B242" t="s">
         <v>36</v>
@@ -8850,12 +8638,12 @@
         <v>6</v>
       </c>
       <c r="H242" t="s">
-        <v>590</v>
-      </c>
-    </row>
-    <row r="243" spans="1:12" x14ac:dyDescent="0.3">
+        <v>570</v>
+      </c>
+    </row>
+    <row r="243" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A243" t="s">
-        <v>591</v>
+        <v>571</v>
       </c>
       <c r="B243" t="s">
         <v>58</v>
@@ -8876,12 +8664,12 @@
         <v>6</v>
       </c>
       <c r="H243" t="s">
-        <v>592</v>
-      </c>
-    </row>
-    <row r="244" spans="1:12" x14ac:dyDescent="0.3">
+        <v>572</v>
+      </c>
+    </row>
+    <row r="244" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A244" t="s">
-        <v>593</v>
+        <v>573</v>
       </c>
       <c r="B244" t="s">
         <v>36</v>
@@ -8902,12 +8690,12 @@
         <v>6</v>
       </c>
       <c r="H244" t="s">
-        <v>594</v>
-      </c>
-    </row>
-    <row r="245" spans="1:12" x14ac:dyDescent="0.3">
+        <v>574</v>
+      </c>
+    </row>
+    <row r="245" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A245" t="s">
-        <v>595</v>
+        <v>575</v>
       </c>
       <c r="B245" t="s">
         <v>36</v>
@@ -8928,12 +8716,12 @@
         <v>6</v>
       </c>
       <c r="H245" t="s">
-        <v>596</v>
-      </c>
-    </row>
-    <row r="246" spans="1:12" x14ac:dyDescent="0.3">
+        <v>576</v>
+      </c>
+    </row>
+    <row r="246" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A246" t="s">
-        <v>597</v>
+        <v>577</v>
       </c>
       <c r="B246" t="s">
         <v>36</v>
@@ -8954,12 +8742,12 @@
         <v>6</v>
       </c>
       <c r="H246" t="s">
-        <v>598</v>
-      </c>
-    </row>
-    <row r="247" spans="1:12" x14ac:dyDescent="0.3">
+        <v>578</v>
+      </c>
+    </row>
+    <row r="247" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A247" t="s">
-        <v>599</v>
+        <v>579</v>
       </c>
       <c r="B247" t="s">
         <v>54</v>
@@ -8971,7 +8759,7 @@
         <v>14</v>
       </c>
       <c r="E247" t="s">
-        <v>374</v>
+        <v>371</v>
       </c>
       <c r="F247" t="s">
         <v>5</v>
@@ -8980,18 +8768,12 @@
         <v>6</v>
       </c>
       <c r="H247" t="s">
-        <v>600</v>
-      </c>
-      <c r="I247" t="s">
-        <v>601</v>
-      </c>
-      <c r="J247" t="s">
-        <v>602</v>
-      </c>
-    </row>
-    <row r="248" spans="1:12" x14ac:dyDescent="0.3">
+        <v>580</v>
+      </c>
+    </row>
+    <row r="248" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A248" t="s">
-        <v>603</v>
+        <v>581</v>
       </c>
       <c r="B248" t="s">
         <v>36</v>
@@ -9000,10 +8782,10 @@
         <v>43</v>
       </c>
       <c r="D248" t="s">
-        <v>247</v>
+        <v>246</v>
       </c>
       <c r="E248" t="s">
-        <v>374</v>
+        <v>371</v>
       </c>
       <c r="F248" t="s">
         <v>5</v>
@@ -9012,24 +8794,24 @@
         <v>6</v>
       </c>
       <c r="H248" t="s">
-        <v>604</v>
-      </c>
-    </row>
-    <row r="249" spans="1:12" x14ac:dyDescent="0.3">
+        <v>582</v>
+      </c>
+    </row>
+    <row r="249" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A249" t="s">
-        <v>605</v>
+        <v>583</v>
       </c>
       <c r="B249" t="s">
         <v>58</v>
       </c>
       <c r="C249" t="s">
-        <v>571</v>
+        <v>553</v>
       </c>
       <c r="D249" t="s">
         <v>18</v>
       </c>
       <c r="E249" t="s">
-        <v>339</v>
+        <v>336</v>
       </c>
       <c r="F249" t="s">
         <v>5</v>
@@ -9038,12 +8820,12 @@
         <v>6</v>
       </c>
       <c r="H249" t="s">
-        <v>606</v>
-      </c>
-    </row>
-    <row r="250" spans="1:12" x14ac:dyDescent="0.3">
+        <v>584</v>
+      </c>
+    </row>
+    <row r="250" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A250" t="s">
-        <v>607</v>
+        <v>585</v>
       </c>
       <c r="B250" t="s">
         <v>54</v>
@@ -9055,7 +8837,7 @@
         <v>49</v>
       </c>
       <c r="E250" t="s">
-        <v>339</v>
+        <v>336</v>
       </c>
       <c r="F250" t="s">
         <v>5</v>
@@ -9064,30 +8846,24 @@
         <v>6</v>
       </c>
       <c r="H250" t="s">
-        <v>608</v>
-      </c>
-      <c r="I250" t="s">
-        <v>609</v>
-      </c>
-      <c r="J250" t="s">
-        <v>610</v>
-      </c>
-    </row>
-    <row r="251" spans="1:12" x14ac:dyDescent="0.3">
+        <v>586</v>
+      </c>
+    </row>
+    <row r="251" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A251" t="s">
-        <v>611</v>
+        <v>587</v>
       </c>
       <c r="B251" t="s">
         <v>36</v>
       </c>
       <c r="C251" t="s">
-        <v>571</v>
+        <v>553</v>
       </c>
       <c r="D251" t="s">
         <v>18</v>
       </c>
       <c r="E251" t="s">
-        <v>339</v>
+        <v>336</v>
       </c>
       <c r="F251" t="s">
         <v>5</v>
@@ -9096,12 +8872,12 @@
         <v>6</v>
       </c>
       <c r="H251" t="s">
-        <v>612</v>
-      </c>
-    </row>
-    <row r="252" spans="1:12" x14ac:dyDescent="0.3">
+        <v>588</v>
+      </c>
+    </row>
+    <row r="252" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A252" t="s">
-        <v>613</v>
+        <v>589</v>
       </c>
       <c r="B252" t="s">
         <v>36</v>
@@ -9122,24 +8898,12 @@
         <v>6</v>
       </c>
       <c r="H252" t="s">
-        <v>614</v>
-      </c>
-      <c r="I252" t="s">
-        <v>615</v>
-      </c>
-      <c r="J252" t="s">
-        <v>473</v>
-      </c>
-      <c r="K252" t="s">
-        <v>616</v>
-      </c>
-      <c r="L252" t="s">
-        <v>617</v>
-      </c>
-    </row>
-    <row r="253" spans="1:12" x14ac:dyDescent="0.3">
+        <v>590</v>
+      </c>
+    </row>
+    <row r="253" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A253" t="s">
-        <v>618</v>
+        <v>591</v>
       </c>
       <c r="B253" t="s">
         <v>54</v>
@@ -9151,7 +8915,7 @@
         <v>18</v>
       </c>
       <c r="E253" t="s">
-        <v>374</v>
+        <v>371</v>
       </c>
       <c r="F253" t="s">
         <v>5</v>
@@ -9160,12 +8924,12 @@
         <v>6</v>
       </c>
       <c r="H253" t="s">
-        <v>619</v>
-      </c>
-    </row>
-    <row r="254" spans="1:12" x14ac:dyDescent="0.3">
+        <v>592</v>
+      </c>
+    </row>
+    <row r="254" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A254" t="s">
-        <v>620</v>
+        <v>593</v>
       </c>
       <c r="B254" t="s">
         <v>36</v>
@@ -9177,7 +8941,7 @@
         <v>109</v>
       </c>
       <c r="E254" t="s">
-        <v>621</v>
+        <v>594</v>
       </c>
       <c r="F254" t="s">
         <v>5</v>
@@ -9186,12 +8950,12 @@
         <v>6</v>
       </c>
       <c r="H254" t="s">
-        <v>622</v>
-      </c>
-    </row>
-    <row r="255" spans="1:12" x14ac:dyDescent="0.3">
+        <v>595</v>
+      </c>
+    </row>
+    <row r="255" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A255" t="s">
-        <v>623</v>
+        <v>596</v>
       </c>
       <c r="B255" t="s">
         <v>36</v>
@@ -9212,12 +8976,12 @@
         <v>6</v>
       </c>
       <c r="H255" t="s">
-        <v>624</v>
-      </c>
-    </row>
-    <row r="256" spans="1:12" x14ac:dyDescent="0.3">
+        <v>597</v>
+      </c>
+    </row>
+    <row r="256" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A256" t="s">
-        <v>625</v>
+        <v>598</v>
       </c>
       <c r="B256" t="s">
         <v>36</v>
@@ -9238,12 +9002,12 @@
         <v>6</v>
       </c>
       <c r="H256" t="s">
-        <v>626</v>
-      </c>
-    </row>
-    <row r="257" spans="1:12" x14ac:dyDescent="0.3">
+        <v>599</v>
+      </c>
+    </row>
+    <row r="257" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A257" t="s">
-        <v>627</v>
+        <v>600</v>
       </c>
       <c r="B257" t="s">
         <v>54</v>
@@ -9264,12 +9028,12 @@
         <v>6</v>
       </c>
       <c r="H257" t="s">
-        <v>628</v>
-      </c>
-    </row>
-    <row r="258" spans="1:12" x14ac:dyDescent="0.3">
+        <v>601</v>
+      </c>
+    </row>
+    <row r="258" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A258" t="s">
-        <v>629</v>
+        <v>602</v>
       </c>
       <c r="B258" t="s">
         <v>54</v>
@@ -9290,21 +9054,12 @@
         <v>6</v>
       </c>
       <c r="H258" t="s">
-        <v>630</v>
-      </c>
-      <c r="I258" t="s">
-        <v>631</v>
-      </c>
-      <c r="J258" t="s">
-        <v>632</v>
-      </c>
-      <c r="K258" t="s">
-        <v>633</v>
-      </c>
-    </row>
-    <row r="259" spans="1:12" x14ac:dyDescent="0.3">
+        <v>603</v>
+      </c>
+    </row>
+    <row r="259" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A259" t="s">
-        <v>634</v>
+        <v>604</v>
       </c>
       <c r="B259" t="s">
         <v>54</v>
@@ -9325,21 +9080,18 @@
         <v>6</v>
       </c>
       <c r="H259" t="s">
-        <v>635</v>
-      </c>
-      <c r="I259" t="s">
-        <v>636</v>
-      </c>
-    </row>
-    <row r="260" spans="1:12" x14ac:dyDescent="0.3">
+        <v>605</v>
+      </c>
+    </row>
+    <row r="260" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A260" t="s">
-        <v>637</v>
+        <v>606</v>
       </c>
       <c r="B260" t="s">
         <v>36</v>
       </c>
       <c r="C260" t="s">
-        <v>571</v>
+        <v>553</v>
       </c>
       <c r="D260" t="s">
         <v>109</v>
@@ -9354,12 +9106,12 @@
         <v>6</v>
       </c>
       <c r="H260" t="s">
-        <v>638</v>
-      </c>
-    </row>
-    <row r="261" spans="1:12" x14ac:dyDescent="0.3">
+        <v>607</v>
+      </c>
+    </row>
+    <row r="261" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A261" t="s">
-        <v>639</v>
+        <v>608</v>
       </c>
       <c r="B261" t="s">
         <v>54</v>
@@ -9380,18 +9132,12 @@
         <v>6</v>
       </c>
       <c r="H261" t="s">
-        <v>640</v>
-      </c>
-      <c r="I261" t="s">
-        <v>641</v>
-      </c>
-      <c r="J261" t="s">
-        <v>642</v>
-      </c>
-    </row>
-    <row r="262" spans="1:12" x14ac:dyDescent="0.3">
+        <v>609</v>
+      </c>
+    </row>
+    <row r="262" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A262" t="s">
-        <v>643</v>
+        <v>610</v>
       </c>
       <c r="B262" t="s">
         <v>54</v>
@@ -9412,21 +9158,12 @@
         <v>6</v>
       </c>
       <c r="H262" t="s">
-        <v>644</v>
-      </c>
-      <c r="I262" t="s">
-        <v>645</v>
-      </c>
-      <c r="J262" t="s">
-        <v>646</v>
-      </c>
-      <c r="K262" t="s">
-        <v>647</v>
-      </c>
-    </row>
-    <row r="263" spans="1:12" x14ac:dyDescent="0.3">
+        <v>611</v>
+      </c>
+    </row>
+    <row r="263" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A263" t="s">
-        <v>648</v>
+        <v>612</v>
       </c>
       <c r="B263" t="s">
         <v>54</v>
@@ -9447,21 +9184,12 @@
         <v>6</v>
       </c>
       <c r="H263" t="s">
-        <v>644</v>
-      </c>
-      <c r="I263" t="s">
-        <v>645</v>
-      </c>
-      <c r="J263" t="s">
-        <v>646</v>
-      </c>
-      <c r="K263" t="s">
-        <v>647</v>
-      </c>
-    </row>
-    <row r="264" spans="1:12" x14ac:dyDescent="0.3">
+        <v>611</v>
+      </c>
+    </row>
+    <row r="264" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A264" t="s">
-        <v>649</v>
+        <v>613</v>
       </c>
       <c r="B264" t="s">
         <v>36</v>
@@ -9482,12 +9210,12 @@
         <v>6</v>
       </c>
       <c r="H264" t="s">
-        <v>650</v>
-      </c>
-    </row>
-    <row r="265" spans="1:12" x14ac:dyDescent="0.3">
+        <v>614</v>
+      </c>
+    </row>
+    <row r="265" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A265" t="s">
-        <v>651</v>
+        <v>615</v>
       </c>
       <c r="B265" t="s">
         <v>54</v>
@@ -9508,21 +9236,12 @@
         <v>6</v>
       </c>
       <c r="H265" t="s">
-        <v>652</v>
-      </c>
-      <c r="I265" t="s">
-        <v>653</v>
-      </c>
-      <c r="J265" t="s">
-        <v>654</v>
-      </c>
-      <c r="K265" t="s">
-        <v>655</v>
-      </c>
-    </row>
-    <row r="266" spans="1:12" x14ac:dyDescent="0.3">
+        <v>616</v>
+      </c>
+    </row>
+    <row r="266" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A266" t="s">
-        <v>656</v>
+        <v>617</v>
       </c>
       <c r="B266" t="s">
         <v>36</v>
@@ -9543,18 +9262,12 @@
         <v>6</v>
       </c>
       <c r="H266" t="s">
-        <v>657</v>
-      </c>
-      <c r="I266" t="s">
-        <v>473</v>
-      </c>
-      <c r="J266" t="s">
-        <v>658</v>
-      </c>
-    </row>
-    <row r="267" spans="1:12" x14ac:dyDescent="0.3">
+        <v>618</v>
+      </c>
+    </row>
+    <row r="267" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A267" t="s">
-        <v>659</v>
+        <v>619</v>
       </c>
       <c r="B267" t="s">
         <v>54</v>
@@ -9575,12 +9288,12 @@
         <v>6</v>
       </c>
       <c r="H267" t="s">
-        <v>660</v>
-      </c>
-    </row>
-    <row r="268" spans="1:12" x14ac:dyDescent="0.3">
+        <v>620</v>
+      </c>
+    </row>
+    <row r="268" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A268" t="s">
-        <v>661</v>
+        <v>621</v>
       </c>
       <c r="B268" t="s">
         <v>36</v>
@@ -9601,12 +9314,12 @@
         <v>6</v>
       </c>
       <c r="H268" t="s">
-        <v>662</v>
-      </c>
-    </row>
-    <row r="269" spans="1:12" x14ac:dyDescent="0.3">
+        <v>622</v>
+      </c>
+    </row>
+    <row r="269" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A269" t="s">
-        <v>663</v>
+        <v>623</v>
       </c>
       <c r="B269" t="s">
         <v>54</v>
@@ -9627,18 +9340,12 @@
         <v>6</v>
       </c>
       <c r="H269" t="s">
-        <v>664</v>
-      </c>
-      <c r="I269" t="s">
-        <v>473</v>
-      </c>
-      <c r="J269" t="s">
-        <v>665</v>
-      </c>
-    </row>
-    <row r="270" spans="1:12" x14ac:dyDescent="0.3">
+        <v>624</v>
+      </c>
+    </row>
+    <row r="270" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A270" t="s">
-        <v>666</v>
+        <v>625</v>
       </c>
       <c r="B270" t="s">
         <v>58</v>
@@ -9659,18 +9366,18 @@
         <v>6</v>
       </c>
       <c r="H270" t="s">
-        <v>667</v>
-      </c>
-    </row>
-    <row r="271" spans="1:12" x14ac:dyDescent="0.3">
+        <v>626</v>
+      </c>
+    </row>
+    <row r="271" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A271" t="s">
-        <v>668</v>
+        <v>627</v>
       </c>
       <c r="B271" t="s">
         <v>54</v>
       </c>
       <c r="C271" t="s">
-        <v>433</v>
+        <v>428</v>
       </c>
       <c r="D271" t="s">
         <v>14</v>
@@ -9685,24 +9392,12 @@
         <v>6</v>
       </c>
       <c r="H271" t="s">
-        <v>669</v>
-      </c>
-      <c r="I271" t="s">
-        <v>670</v>
-      </c>
-      <c r="J271" t="s">
-        <v>671</v>
-      </c>
-      <c r="K271">
-        <v>104</v>
-      </c>
-      <c r="L271" t="s">
-        <v>672</v>
-      </c>
-    </row>
-    <row r="272" spans="1:12" x14ac:dyDescent="0.3">
+        <v>628</v>
+      </c>
+    </row>
+    <row r="272" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A272" t="s">
-        <v>673</v>
+        <v>629</v>
       </c>
       <c r="B272" t="s">
         <v>54</v>
@@ -9723,33 +9418,21 @@
         <v>6</v>
       </c>
       <c r="H272" t="s">
-        <v>674</v>
-      </c>
-      <c r="I272" t="s">
-        <v>675</v>
-      </c>
-      <c r="J272" t="s">
-        <v>676</v>
-      </c>
-      <c r="K272" t="s">
-        <v>677</v>
-      </c>
-      <c r="L272" t="s">
-        <v>678</v>
-      </c>
-    </row>
-    <row r="273" spans="1:9" x14ac:dyDescent="0.3">
+        <v>630</v>
+      </c>
+    </row>
+    <row r="273" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A273" t="s">
-        <v>679</v>
+        <v>631</v>
       </c>
       <c r="B273" t="s">
         <v>54</v>
       </c>
       <c r="C273" t="s">
-        <v>571</v>
+        <v>553</v>
       </c>
       <c r="D273" t="s">
-        <v>247</v>
+        <v>246</v>
       </c>
       <c r="E273" t="s">
         <v>168</v>
@@ -9761,12 +9444,12 @@
         <v>6</v>
       </c>
       <c r="H273" t="s">
-        <v>680</v>
-      </c>
-    </row>
-    <row r="274" spans="1:9" x14ac:dyDescent="0.3">
+        <v>632</v>
+      </c>
+    </row>
+    <row r="274" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A274" t="s">
-        <v>681</v>
+        <v>633</v>
       </c>
       <c r="B274" t="s">
         <v>54</v>
@@ -9787,15 +9470,12 @@
         <v>6</v>
       </c>
       <c r="H274" t="s">
-        <v>682</v>
-      </c>
-      <c r="I274" t="s">
-        <v>683</v>
-      </c>
-    </row>
-    <row r="275" spans="1:9" x14ac:dyDescent="0.3">
+        <v>634</v>
+      </c>
+    </row>
+    <row r="275" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A275" t="s">
-        <v>684</v>
+        <v>635</v>
       </c>
       <c r="B275" t="s">
         <v>36</v>
@@ -9816,12 +9496,12 @@
         <v>6</v>
       </c>
       <c r="H275" t="s">
-        <v>685</v>
-      </c>
-    </row>
-    <row r="276" spans="1:9" x14ac:dyDescent="0.3">
+        <v>636</v>
+      </c>
+    </row>
+    <row r="276" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A276" t="s">
-        <v>686</v>
+        <v>637</v>
       </c>
       <c r="B276" t="s">
         <v>54</v>
@@ -9842,7 +9522,7 @@
         <v>6</v>
       </c>
       <c r="H276" t="s">
-        <v>687</v>
+        <v>638</v>
       </c>
     </row>
   </sheetData>
